--- a/DATOS_COVID-19.xlsx
+++ b/DATOS_COVID-19.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\OneDrive\Documentos\Simulación de Procesos Financieros\Clases Mías\TEMA-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\OneDrive\Documentos\Simulación de Procesos Financieros\Clases Mías\TEMA-2\proyecto_modulo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352BC341-36C5-43D8-9006-FFC1A1FF3FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838222CC-98D5-4A91-BD68-C0AAB58248A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="441">
   <si>
     <t>Hospitalizados</t>
   </si>
@@ -1349,7 +1360,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1364,6 +1378,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0A0101"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1401,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1411,6 +1431,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1751,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E437"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9197,4 +9219,1090 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEB6AB1-886B-4A1D-B637-55E09DC4CF09}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>43836</v>
+      </c>
+      <c r="B2" s="6">
+        <v>921</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>43843</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2229</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>43850</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3117</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>43857</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3283</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>43864</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2577</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>43871</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3212</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>43878</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2841</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>43885</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2805</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>43892</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3078</v>
+      </c>
+      <c r="C10" s="6">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>43899</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3078</v>
+      </c>
+      <c r="C11" s="6">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>43906</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3773</v>
+      </c>
+      <c r="C12" s="6">
+        <v>302</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>43913</v>
+      </c>
+      <c r="B13" s="6">
+        <v>7418</v>
+      </c>
+      <c r="C13" s="6">
+        <v>786</v>
+      </c>
+      <c r="D13" s="6">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B14" s="6">
+        <v>14835</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1521</v>
+      </c>
+      <c r="D14" s="6">
+        <v>56</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B15" s="6">
+        <v>19432</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2438</v>
+      </c>
+      <c r="D15" s="6">
+        <v>220</v>
+      </c>
+      <c r="E15" s="6">
+        <v>8892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B16" s="6">
+        <v>20046</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3816</v>
+      </c>
+      <c r="D16" s="6">
+        <v>463</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B17" s="6">
+        <v>27500</v>
+      </c>
+      <c r="C17" s="6">
+        <v>6778</v>
+      </c>
+      <c r="D17" s="6">
+        <v>846</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B18" s="6">
+        <v>32927</v>
+      </c>
+      <c r="C18" s="6">
+        <v>9732</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1486</v>
+      </c>
+      <c r="E18" s="6">
+        <v>10155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B19" s="6">
+        <v>36451</v>
+      </c>
+      <c r="C19" s="6">
+        <v>12123</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2115</v>
+      </c>
+      <c r="E19" s="6">
+        <v>7315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>43962</v>
+      </c>
+      <c r="B20" s="6">
+        <v>43207</v>
+      </c>
+      <c r="C20" s="6">
+        <v>15182</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2396</v>
+      </c>
+      <c r="E20" s="6">
+        <v>7254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B21" s="6">
+        <v>51409</v>
+      </c>
+      <c r="C21" s="6">
+        <v>20505</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3155</v>
+      </c>
+      <c r="E21" s="6">
+        <v>6768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>43976</v>
+      </c>
+      <c r="B22" s="6">
+        <v>57461</v>
+      </c>
+      <c r="C22" s="6">
+        <v>24370</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3493</v>
+      </c>
+      <c r="E22" s="6">
+        <v>6910</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B23" s="6">
+        <v>63609</v>
+      </c>
+      <c r="C23" s="6">
+        <v>27559</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3786</v>
+      </c>
+      <c r="E23" s="6">
+        <v>7179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>43990</v>
+      </c>
+      <c r="B24" s="6">
+        <v>70350</v>
+      </c>
+      <c r="C24" s="6">
+        <v>31266</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4244</v>
+      </c>
+      <c r="E24" s="6">
+        <v>7701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B25" s="6">
+        <v>78873</v>
+      </c>
+      <c r="C25" s="6">
+        <v>34882</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4505</v>
+      </c>
+      <c r="E25" s="6">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>44004</v>
+      </c>
+      <c r="B26" s="6">
+        <v>80916</v>
+      </c>
+      <c r="C26" s="6">
+        <v>37744</v>
+      </c>
+      <c r="D26" s="6">
+        <v>4503</v>
+      </c>
+      <c r="E26" s="6">
+        <v>9108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B27" s="6">
+        <v>90881</v>
+      </c>
+      <c r="C27" s="6">
+        <v>39979</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4431</v>
+      </c>
+      <c r="E27" s="6">
+        <v>13238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>44018</v>
+      </c>
+      <c r="B28" s="6">
+        <v>95586</v>
+      </c>
+      <c r="C28" s="6">
+        <v>43602</v>
+      </c>
+      <c r="D28" s="6">
+        <v>4813</v>
+      </c>
+      <c r="E28" s="6">
+        <v>11759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>44025</v>
+      </c>
+      <c r="B29" s="6">
+        <v>98094</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45796</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5083</v>
+      </c>
+      <c r="E29" s="6">
+        <v>10793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>44032</v>
+      </c>
+      <c r="B30" s="6">
+        <v>105819</v>
+      </c>
+      <c r="C30" s="6">
+        <v>50525</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5231</v>
+      </c>
+      <c r="E30" s="6">
+        <v>9745</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B31" s="6">
+        <v>103167</v>
+      </c>
+      <c r="C31" s="6">
+        <v>48761</v>
+      </c>
+      <c r="D31" s="6">
+        <v>5162</v>
+      </c>
+      <c r="E31" s="6">
+        <v>9986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B32" s="6">
+        <v>96408</v>
+      </c>
+      <c r="C32" s="6">
+        <v>43988</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4808</v>
+      </c>
+      <c r="E32" s="6">
+        <v>8663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>44053</v>
+      </c>
+      <c r="B33" s="6">
+        <v>93791</v>
+      </c>
+      <c r="C33" s="6">
+        <v>41133</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4612</v>
+      </c>
+      <c r="E33" s="6">
+        <v>8230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>44060</v>
+      </c>
+      <c r="B34" s="6">
+        <v>91676</v>
+      </c>
+      <c r="C34" s="6">
+        <v>38443</v>
+      </c>
+      <c r="D34" s="6">
+        <v>4050</v>
+      </c>
+      <c r="E34" s="6">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>44067</v>
+      </c>
+      <c r="B35" s="6">
+        <v>90092</v>
+      </c>
+      <c r="C35" s="6">
+        <v>37785</v>
+      </c>
+      <c r="D35" s="6">
+        <v>3686</v>
+      </c>
+      <c r="E35" s="6">
+        <v>7477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>44074</v>
+      </c>
+      <c r="B36" s="6">
+        <v>98031</v>
+      </c>
+      <c r="C36" s="6">
+        <v>38733</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3514</v>
+      </c>
+      <c r="E36" s="6">
+        <v>8430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>44081</v>
+      </c>
+      <c r="B37" s="6">
+        <v>97308</v>
+      </c>
+      <c r="C37" s="6">
+        <v>37736</v>
+      </c>
+      <c r="D37" s="6">
+        <v>3194</v>
+      </c>
+      <c r="E37" s="6">
+        <v>7438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>44088</v>
+      </c>
+      <c r="B38" s="6">
+        <v>92861</v>
+      </c>
+      <c r="C38" s="6">
+        <v>34813</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2930</v>
+      </c>
+      <c r="E38" s="6">
+        <v>6508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>44095</v>
+      </c>
+      <c r="B39" s="6">
+        <v>76114</v>
+      </c>
+      <c r="C39" s="6">
+        <v>29416</v>
+      </c>
+      <c r="D39" s="6">
+        <v>2708</v>
+      </c>
+      <c r="E39" s="6">
+        <v>5551</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>44102</v>
+      </c>
+      <c r="B40" s="6">
+        <v>89528</v>
+      </c>
+      <c r="C40" s="6">
+        <v>33230</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2567</v>
+      </c>
+      <c r="E40" s="6">
+        <v>6488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>44109</v>
+      </c>
+      <c r="B41" s="6">
+        <v>86061</v>
+      </c>
+      <c r="C41" s="6">
+        <v>31734</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2408</v>
+      </c>
+      <c r="E41" s="6">
+        <v>6284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>44116</v>
+      </c>
+      <c r="B42" s="6">
+        <v>88913</v>
+      </c>
+      <c r="C42" s="6">
+        <v>34725</v>
+      </c>
+      <c r="D42" s="6">
+        <v>2411</v>
+      </c>
+      <c r="E42" s="6">
+        <v>6755</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>44123</v>
+      </c>
+      <c r="B43" s="6">
+        <v>99572</v>
+      </c>
+      <c r="C43" s="6">
+        <v>40411</v>
+      </c>
+      <c r="D43" s="6">
+        <v>2623</v>
+      </c>
+      <c r="E43" s="6">
+        <v>6614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>44130</v>
+      </c>
+      <c r="B44" s="6">
+        <v>114520</v>
+      </c>
+      <c r="C44" s="6">
+        <v>44373</v>
+      </c>
+      <c r="D44" s="6">
+        <v>3022</v>
+      </c>
+      <c r="E44" s="6">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>44137</v>
+      </c>
+      <c r="B45" s="6">
+        <v>102232</v>
+      </c>
+      <c r="C45" s="6">
+        <v>38351</v>
+      </c>
+      <c r="D45" s="6">
+        <v>3049</v>
+      </c>
+      <c r="E45" s="6">
+        <v>7839</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>44144</v>
+      </c>
+      <c r="B46" s="6">
+        <v>111299</v>
+      </c>
+      <c r="C46" s="6">
+        <v>44524</v>
+      </c>
+      <c r="D46" s="6">
+        <v>3203</v>
+      </c>
+      <c r="E46" s="6">
+        <v>9048</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>44151</v>
+      </c>
+      <c r="B47" s="6">
+        <v>100347</v>
+      </c>
+      <c r="C47" s="6">
+        <v>42220</v>
+      </c>
+      <c r="D47" s="6">
+        <v>3200</v>
+      </c>
+      <c r="E47" s="6">
+        <v>8173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>44158</v>
+      </c>
+      <c r="B48" s="6">
+        <v>122041</v>
+      </c>
+      <c r="C48" s="6">
+        <v>51835</v>
+      </c>
+      <c r="D48" s="6">
+        <v>3511</v>
+      </c>
+      <c r="E48" s="6">
+        <v>9461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>44165</v>
+      </c>
+      <c r="B49" s="6">
+        <v>144104</v>
+      </c>
+      <c r="C49" s="6">
+        <v>57240</v>
+      </c>
+      <c r="D49" s="6">
+        <v>3777</v>
+      </c>
+      <c r="E49" s="6">
+        <v>8691</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>44172</v>
+      </c>
+      <c r="B50" s="6">
+        <v>177111</v>
+      </c>
+      <c r="C50" s="6">
+        <v>66314</v>
+      </c>
+      <c r="D50" s="6">
+        <v>4107</v>
+      </c>
+      <c r="E50" s="6">
+        <v>8882</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B51" s="6">
+        <v>193026</v>
+      </c>
+      <c r="C51" s="6">
+        <v>73933</v>
+      </c>
+      <c r="D51" s="6">
+        <v>4480</v>
+      </c>
+      <c r="E51" s="6">
+        <v>9735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B52" s="6">
+        <v>200549</v>
+      </c>
+      <c r="C52" s="6">
+        <v>76102</v>
+      </c>
+      <c r="D52" s="6">
+        <v>5067</v>
+      </c>
+      <c r="E52" s="6">
+        <v>10423</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>44193</v>
+      </c>
+      <c r="B53" s="6">
+        <v>165376</v>
+      </c>
+      <c r="C53" s="6">
+        <v>64300</v>
+      </c>
+      <c r="D53" s="6">
+        <v>5529</v>
+      </c>
+      <c r="E53" s="6">
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>44200</v>
+      </c>
+      <c r="B54" s="6">
+        <v>185513</v>
+      </c>
+      <c r="C54" s="6">
+        <v>74423</v>
+      </c>
+      <c r="D54" s="6">
+        <v>6149</v>
+      </c>
+      <c r="E54" s="6">
+        <v>8288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>44207</v>
+      </c>
+      <c r="B55" s="6">
+        <v>261391</v>
+      </c>
+      <c r="C55" s="6">
+        <v>108605</v>
+      </c>
+      <c r="D55" s="6">
+        <v>7180</v>
+      </c>
+      <c r="E55" s="6">
+        <v>11599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>44214</v>
+      </c>
+      <c r="B56" s="6">
+        <v>267058</v>
+      </c>
+      <c r="C56" s="6">
+        <v>105270</v>
+      </c>
+      <c r="D56" s="6">
+        <v>8013</v>
+      </c>
+      <c r="E56" s="6">
+        <v>11463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>44221</v>
+      </c>
+      <c r="B57" s="6">
+        <v>267970</v>
+      </c>
+      <c r="C57" s="6">
+        <v>99565</v>
+      </c>
+      <c r="D57" s="6">
+        <v>8579</v>
+      </c>
+      <c r="E57" s="6">
+        <v>10759</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>44228</v>
+      </c>
+      <c r="B58" s="6">
+        <v>217384</v>
+      </c>
+      <c r="C58" s="6">
+        <v>72385</v>
+      </c>
+      <c r="D58" s="6">
+        <v>7641</v>
+      </c>
+      <c r="E58" s="6">
+        <v>8594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>44235</v>
+      </c>
+      <c r="B59" s="6">
+        <v>207633</v>
+      </c>
+      <c r="C59" s="6">
+        <v>64645</v>
+      </c>
+      <c r="D59" s="6">
+        <v>6269</v>
+      </c>
+      <c r="E59" s="6">
+        <v>8439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>44242</v>
+      </c>
+      <c r="B60" s="6">
+        <v>170338</v>
+      </c>
+      <c r="C60" s="6">
+        <v>46692</v>
+      </c>
+      <c r="D60" s="6">
+        <v>4849</v>
+      </c>
+      <c r="E60" s="6">
+        <v>6373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>44249</v>
+      </c>
+      <c r="B61" s="6">
+        <v>154286</v>
+      </c>
+      <c r="C61" s="6">
+        <v>41379</v>
+      </c>
+      <c r="D61" s="6">
+        <v>3960</v>
+      </c>
+      <c r="E61" s="6">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>44256</v>
+      </c>
+      <c r="B62" s="6">
+        <v>154040</v>
+      </c>
+      <c r="C62" s="6">
+        <v>39767</v>
+      </c>
+      <c r="D62" s="6">
+        <v>3135</v>
+      </c>
+      <c r="E62" s="6">
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>44263</v>
+      </c>
+      <c r="B63" s="6">
+        <v>137726</v>
+      </c>
+      <c r="C63" s="6">
+        <v>32742</v>
+      </c>
+      <c r="D63" s="6">
+        <v>2556</v>
+      </c>
+      <c r="E63" s="6">
+        <v>7679</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DATOS_COVID-19.xlsx
+++ b/DATOS_COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\OneDrive\Documentos\Simulación de Procesos Financieros\Clases Mías\TEMA-2\proyecto_modulo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838222CC-98D5-4A91-BD68-C0AAB58248A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F49279-6A33-46AA-A3EE-353FB6B23FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1361,7 +1361,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1431,7 +1431,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1773,15 +1773,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E437"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1791,10 +1791,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>438</v>
@@ -1825,10 +1825,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
         <v>36</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -1842,10 +1842,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <v>129</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>212</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
         <v>80</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1893,10 +1893,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <v>138</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1910,10 +1910,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
         <v>326</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
         <v>363</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -1944,10 +1944,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
         <v>380</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -1961,10 +1961,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
         <v>374</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
         <v>343</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
         <v>93</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
         <v>208</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -2029,10 +2029,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
         <v>468</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
         <v>519</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -2063,10 +2063,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
         <v>604</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
         <v>547</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -2097,10 +2097,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
         <v>493</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -2114,10 +2114,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
         <v>124</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
         <v>200</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -2148,10 +2148,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
         <v>630</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
         <v>573</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
         <v>607</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
         <v>549</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
         <v>510</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -2233,10 +2233,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
         <v>166</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
         <v>237</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -2267,10 +2267,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
         <v>641</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
         <v>612</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
         <v>524</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
         <v>571</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
         <v>384</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -2352,10 +2352,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
         <v>94</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
         <v>147</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
         <v>245</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
         <v>661</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -2420,10 +2420,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
         <v>578</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -2437,10 +2437,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
         <v>535</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
         <v>447</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
@@ -2471,10 +2471,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
         <v>102</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
         <v>217</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
         <v>672</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
         <v>555</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
         <v>547</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
@@ -2556,10 +2556,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
         <v>452</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
@@ -2573,10 +2573,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
         <v>367</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
@@ -2590,10 +2590,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
         <v>150</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -2607,10 +2607,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
         <v>187</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -2624,10 +2624,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
         <v>583</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -2641,10 +2641,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4">
         <v>557</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
         <v>492</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -2675,10 +2675,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
         <v>484</v>
-      </c>
-      <c r="C53" s="4">
-        <v>1</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -2692,10 +2692,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4">
         <v>411</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -2709,10 +2709,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
         <v>110</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
@@ -2726,10 +2726,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
         <v>205</v>
-      </c>
-      <c r="C56" s="4">
-        <v>1</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
@@ -2743,10 +2743,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="4">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4">
         <v>546</v>
-      </c>
-      <c r="C57" s="4">
-        <v>2</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -2760,10 +2760,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
         <v>587</v>
-      </c>
-      <c r="C58" s="4">
-        <v>1</v>
       </c>
       <c r="D58" s="4">
         <v>0</v>
@@ -2777,10 +2777,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4">
         <v>509</v>
-      </c>
-      <c r="C59" s="4">
-        <v>1</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4">
+        <v>5</v>
+      </c>
+      <c r="C60" s="4">
         <v>462</v>
-      </c>
-      <c r="C60" s="4">
-        <v>5</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>
@@ -2811,10 +2811,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4">
+        <v>3</v>
+      </c>
+      <c r="C61" s="4">
         <v>477</v>
-      </c>
-      <c r="C61" s="4">
-        <v>3</v>
       </c>
       <c r="D61" s="4">
         <v>0</v>
@@ -2828,10 +2828,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4">
         <v>148</v>
-      </c>
-      <c r="C62" s="4">
-        <v>2</v>
       </c>
       <c r="D62" s="4">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
         <v>233</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0</v>
       </c>
       <c r="D63" s="4">
         <v>0</v>
@@ -2862,10 +2862,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="4">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4">
         <v>662</v>
-      </c>
-      <c r="C64" s="4">
-        <v>2</v>
       </c>
       <c r="D64" s="4">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="4">
+        <v>4</v>
+      </c>
+      <c r="C65" s="4">
         <v>653</v>
-      </c>
-      <c r="C65" s="4">
-        <v>4</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -2896,10 +2896,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="4">
+        <v>3</v>
+      </c>
+      <c r="C66" s="4">
         <v>598</v>
-      </c>
-      <c r="C66" s="4">
-        <v>3</v>
       </c>
       <c r="D66" s="4">
         <v>0</v>
@@ -2913,10 +2913,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4">
+        <v>4</v>
+      </c>
+      <c r="C67" s="4">
         <v>564</v>
-      </c>
-      <c r="C67" s="4">
-        <v>4</v>
       </c>
       <c r="D67" s="4">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4">
         <v>438</v>
-      </c>
-      <c r="C68" s="4">
-        <v>1</v>
       </c>
       <c r="D68" s="4">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="4">
+        <v>2</v>
+      </c>
+      <c r="C69" s="4">
         <v>135</v>
-      </c>
-      <c r="C69" s="4">
-        <v>2</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4">
+        <v>6</v>
+      </c>
+      <c r="C70" s="4">
         <v>184</v>
-      </c>
-      <c r="C70" s="4">
-        <v>6</v>
       </c>
       <c r="D70" s="4">
         <v>0</v>
@@ -2981,10 +2981,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="4">
+        <v>4</v>
+      </c>
+      <c r="C71" s="4">
         <v>506</v>
-      </c>
-      <c r="C71" s="4">
-        <v>4</v>
       </c>
       <c r="D71" s="4">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="4">
+        <v>12</v>
+      </c>
+      <c r="C72" s="4">
         <v>577</v>
-      </c>
-      <c r="C72" s="4">
-        <v>12</v>
       </c>
       <c r="D72" s="4">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="4">
+        <v>34</v>
+      </c>
+      <c r="C73" s="4">
         <v>637</v>
-      </c>
-      <c r="C73" s="4">
-        <v>34</v>
       </c>
       <c r="D73" s="4">
         <v>0</v>
@@ -3032,10 +3032,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="4">
+        <v>36</v>
+      </c>
+      <c r="C74" s="4">
         <v>682</v>
-      </c>
-      <c r="C74" s="4">
-        <v>36</v>
       </c>
       <c r="D74" s="4">
         <v>0</v>
@@ -3049,10 +3049,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="4">
+        <v>60</v>
+      </c>
+      <c r="C75" s="4">
         <v>726</v>
-      </c>
-      <c r="C75" s="4">
-        <v>60</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -3066,10 +3066,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="4">
+        <v>51</v>
+      </c>
+      <c r="C76" s="4">
         <v>286</v>
-      </c>
-      <c r="C76" s="4">
-        <v>51</v>
       </c>
       <c r="D76" s="4">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="4">
+        <v>37</v>
+      </c>
+      <c r="C77" s="4">
         <v>325</v>
-      </c>
-      <c r="C77" s="4">
-        <v>37</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
@@ -3100,10 +3100,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="4">
+        <v>72</v>
+      </c>
+      <c r="C78" s="4">
         <v>540</v>
-      </c>
-      <c r="C78" s="4">
-        <v>72</v>
       </c>
       <c r="D78" s="4">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="4">
+        <v>95</v>
+      </c>
+      <c r="C79" s="4">
         <v>1194</v>
-      </c>
-      <c r="C79" s="4">
-        <v>95</v>
       </c>
       <c r="D79" s="4">
         <v>2</v>
@@ -3134,10 +3134,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="4">
+        <v>104</v>
+      </c>
+      <c r="C80" s="4">
         <v>1245</v>
-      </c>
-      <c r="C80" s="4">
-        <v>104</v>
       </c>
       <c r="D80" s="4">
         <v>3</v>
@@ -3151,10 +3151,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="4">
+        <v>151</v>
+      </c>
+      <c r="C81" s="4">
         <v>1270</v>
-      </c>
-      <c r="C81" s="4">
-        <v>151</v>
       </c>
       <c r="D81" s="4">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="4">
+        <v>131</v>
+      </c>
+      <c r="C82" s="4">
         <v>1112</v>
-      </c>
-      <c r="C82" s="4">
-        <v>131</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -3185,10 +3185,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="4">
+        <v>81</v>
+      </c>
+      <c r="C83" s="4">
         <v>606</v>
-      </c>
-      <c r="C83" s="4">
-        <v>81</v>
       </c>
       <c r="D83" s="4">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="4">
+        <v>64</v>
+      </c>
+      <c r="C84" s="4">
         <v>519</v>
-      </c>
-      <c r="C84" s="4">
-        <v>64</v>
       </c>
       <c r="D84" s="4">
         <v>2</v>
@@ -3219,10 +3219,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="4">
+        <v>160</v>
+      </c>
+      <c r="C85" s="4">
         <v>1472</v>
-      </c>
-      <c r="C85" s="4">
-        <v>160</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -3236,10 +3236,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="4">
+        <v>220</v>
+      </c>
+      <c r="C86" s="4">
         <v>1723</v>
-      </c>
-      <c r="C86" s="4">
-        <v>220</v>
       </c>
       <c r="D86" s="4">
         <v>2</v>
@@ -3253,10 +3253,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="4">
+        <v>174</v>
+      </c>
+      <c r="C87" s="4">
         <v>2127</v>
-      </c>
-      <c r="C87" s="4">
-        <v>174</v>
       </c>
       <c r="D87" s="4">
         <v>2</v>
@@ -3270,10 +3270,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="4">
+        <v>212</v>
+      </c>
+      <c r="C88" s="4">
         <v>2427</v>
-      </c>
-      <c r="C88" s="4">
-        <v>212</v>
       </c>
       <c r="D88" s="4">
         <v>8</v>
@@ -3287,10 +3287,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="4">
+        <v>251</v>
+      </c>
+      <c r="C89" s="4">
         <v>3022</v>
-      </c>
-      <c r="C89" s="4">
-        <v>251</v>
       </c>
       <c r="D89" s="4">
         <v>8</v>
@@ -3304,10 +3304,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="4">
+        <v>183</v>
+      </c>
+      <c r="C90" s="4">
         <v>1099</v>
-      </c>
-      <c r="C90" s="4">
-        <v>183</v>
       </c>
       <c r="D90" s="4">
         <v>15</v>
@@ -3321,10 +3321,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="4">
+        <v>153</v>
+      </c>
+      <c r="C91" s="4">
         <v>1059</v>
-      </c>
-      <c r="C91" s="4">
-        <v>153</v>
       </c>
       <c r="D91" s="4">
         <v>9</v>
@@ -3338,10 +3338,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="4">
+        <v>328</v>
+      </c>
+      <c r="C92" s="4">
         <v>3378</v>
-      </c>
-      <c r="C92" s="4">
-        <v>328</v>
       </c>
       <c r="D92" s="4">
         <v>12</v>
@@ -3355,10 +3355,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="4">
+        <v>300</v>
+      </c>
+      <c r="C93" s="4">
         <v>3211</v>
-      </c>
-      <c r="C93" s="4">
-        <v>300</v>
       </c>
       <c r="D93" s="4">
         <v>22</v>
@@ -3372,10 +3372,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="4">
+        <v>358</v>
+      </c>
+      <c r="C94" s="4">
         <v>3294</v>
-      </c>
-      <c r="C94" s="4">
-        <v>358</v>
       </c>
       <c r="D94" s="4">
         <v>20</v>
@@ -3389,10 +3389,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="4">
+        <v>335</v>
+      </c>
+      <c r="C95" s="4">
         <v>3303</v>
-      </c>
-      <c r="C95" s="4">
-        <v>335</v>
       </c>
       <c r="D95" s="4">
         <v>27</v>
@@ -3406,10 +3406,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="4">
+        <v>369</v>
+      </c>
+      <c r="C96" s="4">
         <v>3307</v>
-      </c>
-      <c r="C96" s="4">
-        <v>369</v>
       </c>
       <c r="D96" s="4">
         <v>33</v>
@@ -3423,10 +3423,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="4">
+        <v>235</v>
+      </c>
+      <c r="C97" s="4">
         <v>1505</v>
-      </c>
-      <c r="C97" s="4">
-        <v>235</v>
       </c>
       <c r="D97" s="4">
         <v>34</v>
@@ -3440,10 +3440,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="4">
+        <v>241</v>
+      </c>
+      <c r="C98" s="4">
         <v>1151</v>
-      </c>
-      <c r="C98" s="4">
-        <v>241</v>
       </c>
       <c r="D98" s="4">
         <v>31</v>
@@ -3457,10 +3457,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="4">
+        <v>600</v>
+      </c>
+      <c r="C99" s="4">
         <v>3661</v>
-      </c>
-      <c r="C99" s="4">
-        <v>600</v>
       </c>
       <c r="D99" s="4">
         <v>53</v>
@@ -3474,10 +3474,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="4">
+        <v>496</v>
+      </c>
+      <c r="C100" s="4">
         <v>3510</v>
-      </c>
-      <c r="C100" s="4">
-        <v>496</v>
       </c>
       <c r="D100" s="4">
         <v>56</v>
@@ -3491,10 +3491,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="4">
+        <v>549</v>
+      </c>
+      <c r="C101" s="4">
         <v>3687</v>
-      </c>
-      <c r="C101" s="4">
-        <v>549</v>
       </c>
       <c r="D101" s="4">
         <v>49</v>
@@ -3508,10 +3508,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="4">
+        <v>451</v>
+      </c>
+      <c r="C102" s="4">
         <v>2282</v>
-      </c>
-      <c r="C102" s="4">
-        <v>451</v>
       </c>
       <c r="D102" s="4">
         <v>55</v>
@@ -3525,10 +3525,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="4">
+        <v>533</v>
+      </c>
+      <c r="C103" s="4">
         <v>2640</v>
-      </c>
-      <c r="C103" s="4">
-        <v>533</v>
       </c>
       <c r="D103" s="4">
         <v>71</v>
@@ -3542,10 +3542,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="4">
+        <v>438</v>
+      </c>
+      <c r="C104" s="4">
         <v>1841</v>
-      </c>
-      <c r="C104" s="4">
-        <v>438</v>
       </c>
       <c r="D104" s="4">
         <v>71</v>
@@ -3559,10 +3559,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="4">
+        <v>446</v>
+      </c>
+      <c r="C105" s="4">
         <v>1501</v>
-      </c>
-      <c r="C105" s="4">
-        <v>446</v>
       </c>
       <c r="D105" s="4">
         <v>73</v>
@@ -3576,10 +3576,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="4">
+        <v>903</v>
+      </c>
+      <c r="C106" s="4">
         <v>4585</v>
-      </c>
-      <c r="C106" s="4">
-        <v>903</v>
       </c>
       <c r="D106" s="4">
         <v>88</v>
@@ -3593,10 +3593,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="4">
+        <v>882</v>
+      </c>
+      <c r="C107" s="4">
         <v>4467</v>
-      </c>
-      <c r="C107" s="4">
-        <v>882</v>
       </c>
       <c r="D107" s="4">
         <v>96</v>
@@ -3610,10 +3610,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="4">
+        <v>932</v>
+      </c>
+      <c r="C108" s="4">
         <v>4243</v>
-      </c>
-      <c r="C108" s="4">
-        <v>932</v>
       </c>
       <c r="D108" s="4">
         <v>98</v>
@@ -3627,10 +3627,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="4">
+        <v>948</v>
+      </c>
+      <c r="C109" s="4">
         <v>4280</v>
-      </c>
-      <c r="C109" s="4">
-        <v>948</v>
       </c>
       <c r="D109" s="4">
         <v>90</v>
@@ -3644,10 +3644,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="4">
+        <v>1088</v>
+      </c>
+      <c r="C110" s="4">
         <v>4749</v>
-      </c>
-      <c r="C110" s="4">
-        <v>1088</v>
       </c>
       <c r="D110" s="4">
         <v>118</v>
@@ -3661,10 +3661,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="4">
+        <v>763</v>
+      </c>
+      <c r="C111" s="4">
         <v>2291</v>
-      </c>
-      <c r="C111" s="4">
-        <v>763</v>
       </c>
       <c r="D111" s="4">
         <v>120</v>
@@ -3678,10 +3678,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="4">
+        <v>725</v>
+      </c>
+      <c r="C112" s="4">
         <v>1972</v>
-      </c>
-      <c r="C112" s="4">
-        <v>725</v>
       </c>
       <c r="D112" s="4">
         <v>148</v>
@@ -3695,10 +3695,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="4">
+        <v>1440</v>
+      </c>
+      <c r="C113" s="4">
         <v>5498</v>
-      </c>
-      <c r="C113" s="4">
-        <v>1440</v>
       </c>
       <c r="D113" s="4">
         <v>176</v>
@@ -3712,10 +3712,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="4">
+        <v>1401</v>
+      </c>
+      <c r="C114" s="4">
         <v>5180</v>
-      </c>
-      <c r="C114" s="4">
-        <v>1401</v>
       </c>
       <c r="D114" s="4">
         <v>177</v>
@@ -3729,10 +3729,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="4">
+        <v>1339</v>
+      </c>
+      <c r="C115" s="4">
         <v>4990</v>
-      </c>
-      <c r="C115" s="4">
-        <v>1339</v>
       </c>
       <c r="D115" s="4">
         <v>174</v>
@@ -3746,10 +3746,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="4">
+        <v>1428</v>
+      </c>
+      <c r="C116" s="4">
         <v>5166</v>
-      </c>
-      <c r="C116" s="4">
-        <v>1428</v>
       </c>
       <c r="D116" s="4">
         <v>185</v>
@@ -3763,10 +3763,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="4">
+        <v>1644</v>
+      </c>
+      <c r="C117" s="4">
         <v>5697</v>
-      </c>
-      <c r="C117" s="4">
-        <v>1644</v>
       </c>
       <c r="D117" s="4">
         <v>220</v>
@@ -3780,10 +3780,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="4">
+        <v>1073</v>
+      </c>
+      <c r="C118" s="4">
         <v>3049</v>
-      </c>
-      <c r="C118" s="4">
-        <v>1073</v>
       </c>
       <c r="D118" s="4">
         <v>240</v>
@@ -3797,10 +3797,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="4">
+        <v>1017</v>
+      </c>
+      <c r="C119" s="4">
         <v>2646</v>
-      </c>
-      <c r="C119" s="4">
-        <v>1017</v>
       </c>
       <c r="D119" s="4">
         <v>261</v>
@@ -3814,10 +3814,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="4">
+        <v>1830</v>
+      </c>
+      <c r="C120" s="4">
         <v>6199</v>
-      </c>
-      <c r="C120" s="4">
-        <v>1830</v>
       </c>
       <c r="D120" s="4">
         <v>229</v>
@@ -3831,10 +3831,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="4">
+        <v>1859</v>
+      </c>
+      <c r="C121" s="4">
         <v>6198</v>
-      </c>
-      <c r="C121" s="4">
-        <v>1859</v>
       </c>
       <c r="D121" s="4">
         <v>240</v>
@@ -3848,10 +3848,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="4">
+        <v>1827</v>
+      </c>
+      <c r="C122" s="4">
         <v>6342</v>
-      </c>
-      <c r="C122" s="4">
-        <v>1827</v>
       </c>
       <c r="D122" s="4">
         <v>313</v>
@@ -3865,10 +3865,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="4">
+        <v>1816</v>
+      </c>
+      <c r="C123" s="4">
         <v>6064</v>
-      </c>
-      <c r="C123" s="4">
-        <v>1816</v>
       </c>
       <c r="D123" s="4">
         <v>289</v>
@@ -3882,10 +3882,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="4">
+        <v>1435</v>
+      </c>
+      <c r="C124" s="4">
         <v>3920</v>
-      </c>
-      <c r="C124" s="4">
-        <v>1435</v>
       </c>
       <c r="D124" s="4">
         <v>335</v>
@@ -3899,10 +3899,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="4">
+        <v>1379</v>
+      </c>
+      <c r="C125" s="4">
         <v>3504</v>
-      </c>
-      <c r="C125" s="4">
-        <v>1379</v>
       </c>
       <c r="D125" s="4">
         <v>296</v>
@@ -3916,10 +3916,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="4">
+        <v>1265</v>
+      </c>
+      <c r="C126" s="4">
         <v>3349</v>
-      </c>
-      <c r="C126" s="4">
-        <v>1265</v>
       </c>
       <c r="D126" s="4">
         <v>286</v>
@@ -3933,10 +3933,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="4">
+        <v>2542</v>
+      </c>
+      <c r="C127" s="4">
         <v>7074</v>
-      </c>
-      <c r="C127" s="4">
-        <v>2542</v>
       </c>
       <c r="D127" s="4">
         <v>356</v>
@@ -3950,10 +3950,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="4">
+        <v>2116</v>
+      </c>
+      <c r="C128" s="4">
         <v>6163</v>
-      </c>
-      <c r="C128" s="4">
-        <v>2116</v>
       </c>
       <c r="D128" s="4">
         <v>341</v>
@@ -3967,10 +3967,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="4">
+        <v>2286</v>
+      </c>
+      <c r="C129" s="4">
         <v>6918</v>
-      </c>
-      <c r="C129" s="4">
-        <v>2286</v>
       </c>
       <c r="D129" s="4">
         <v>327</v>
@@ -3984,10 +3984,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="4">
+        <v>2419</v>
+      </c>
+      <c r="C130" s="4">
         <v>7126</v>
-      </c>
-      <c r="C130" s="4">
-        <v>2419</v>
       </c>
       <c r="D130" s="4">
         <v>317</v>
@@ -4001,10 +4001,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="4">
+        <v>2421</v>
+      </c>
+      <c r="C131" s="4">
         <v>7328</v>
-      </c>
-      <c r="C131" s="4">
-        <v>2421</v>
       </c>
       <c r="D131" s="4">
         <v>350</v>
@@ -4018,10 +4018,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="4">
+        <v>1532</v>
+      </c>
+      <c r="C132" s="4">
         <v>4212</v>
-      </c>
-      <c r="C132" s="4">
-        <v>1532</v>
       </c>
       <c r="D132" s="4">
         <v>342</v>
@@ -4035,10 +4035,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="4">
+        <v>1432</v>
+      </c>
+      <c r="C133" s="4">
         <v>3384</v>
-      </c>
-      <c r="C133" s="4">
-        <v>1432</v>
       </c>
       <c r="D133" s="4">
         <v>348</v>
@@ -4052,10 +4052,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="4">
+        <v>2976</v>
+      </c>
+      <c r="C134" s="4">
         <v>8076</v>
-      </c>
-      <c r="C134" s="4">
-        <v>2976</v>
       </c>
       <c r="D134" s="4">
         <v>371</v>
@@ -4069,10 +4069,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="4">
+        <v>2942</v>
+      </c>
+      <c r="C135" s="4">
         <v>8203</v>
-      </c>
-      <c r="C135" s="4">
-        <v>2942</v>
       </c>
       <c r="D135" s="4">
         <v>394</v>
@@ -4086,10 +4086,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="4">
+        <v>3115</v>
+      </c>
+      <c r="C136" s="4">
         <v>7921</v>
-      </c>
-      <c r="C136" s="4">
-        <v>3115</v>
       </c>
       <c r="D136" s="4">
         <v>408</v>
@@ -4103,10 +4103,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="4">
+        <v>3081</v>
+      </c>
+      <c r="C137" s="4">
         <v>8270</v>
-      </c>
-      <c r="C137" s="4">
-        <v>3081</v>
       </c>
       <c r="D137" s="4">
         <v>455</v>
@@ -4120,10 +4120,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="4">
+        <v>3494</v>
+      </c>
+      <c r="C138" s="4">
         <v>8892</v>
-      </c>
-      <c r="C138" s="4">
-        <v>3494</v>
       </c>
       <c r="D138" s="4">
         <v>463</v>
@@ -4137,10 +4137,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="4">
+        <v>2178</v>
+      </c>
+      <c r="C139" s="4">
         <v>4945</v>
-      </c>
-      <c r="C139" s="4">
-        <v>2178</v>
       </c>
       <c r="D139" s="4">
         <v>435</v>
@@ -4154,10 +4154,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="4">
+        <v>1649</v>
+      </c>
+      <c r="C140" s="4">
         <v>3453</v>
-      </c>
-      <c r="C140" s="4">
-        <v>1649</v>
       </c>
       <c r="D140" s="4">
         <v>500</v>
@@ -4171,10 +4171,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="4">
+        <v>4046</v>
+      </c>
+      <c r="C141" s="4">
         <v>9725</v>
-      </c>
-      <c r="C141" s="4">
-        <v>4046</v>
       </c>
       <c r="D141" s="4">
         <v>500</v>
@@ -4188,10 +4188,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="4">
+        <v>3585</v>
+      </c>
+      <c r="C142" s="4">
         <v>8747</v>
-      </c>
-      <c r="C142" s="4">
-        <v>3585</v>
       </c>
       <c r="D142" s="4">
         <v>502</v>
@@ -4205,10 +4205,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="4">
+        <v>3921</v>
+      </c>
+      <c r="C143" s="4">
         <v>9481</v>
-      </c>
-      <c r="C143" s="4">
-        <v>3921</v>
       </c>
       <c r="D143" s="4">
         <v>489</v>
@@ -4222,10 +4222,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="4">
+        <v>4025</v>
+      </c>
+      <c r="C144" s="4">
         <v>9445</v>
-      </c>
-      <c r="C144" s="4">
-        <v>4025</v>
       </c>
       <c r="D144" s="4">
         <v>491</v>
@@ -4239,10 +4239,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="4">
+        <v>4002</v>
+      </c>
+      <c r="C145" s="4">
         <v>9716</v>
-      </c>
-      <c r="C145" s="4">
-        <v>4002</v>
       </c>
       <c r="D145" s="4">
         <v>481</v>
@@ -4256,10 +4256,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="4">
+        <v>2290</v>
+      </c>
+      <c r="C146" s="4">
         <v>5110</v>
-      </c>
-      <c r="C146" s="4">
-        <v>2290</v>
       </c>
       <c r="D146" s="4">
         <v>469</v>
@@ -4273,10 +4273,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="4">
+        <v>1888</v>
+      </c>
+      <c r="C147" s="4">
         <v>4176</v>
-      </c>
-      <c r="C147" s="4">
-        <v>1888</v>
       </c>
       <c r="D147" s="4">
         <v>518</v>
@@ -4290,10 +4290,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="4">
+        <v>4659</v>
+      </c>
+      <c r="C148" s="4">
         <v>10786</v>
-      </c>
-      <c r="C148" s="4">
-        <v>4659</v>
       </c>
       <c r="D148" s="4">
         <v>543</v>
@@ -4307,10 +4307,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="4">
+        <v>4341</v>
+      </c>
+      <c r="C149" s="4">
         <v>10389</v>
-      </c>
-      <c r="C149" s="4">
-        <v>4341</v>
       </c>
       <c r="D149" s="4">
         <v>538</v>
@@ -4324,10 +4324,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="4">
+        <v>4469</v>
+      </c>
+      <c r="C150" s="4">
         <v>10568</v>
-      </c>
-      <c r="C150" s="4">
-        <v>4469</v>
       </c>
       <c r="D150" s="4">
         <v>512</v>
@@ -4341,10 +4341,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="4">
+        <v>4229</v>
+      </c>
+      <c r="C151" s="4">
         <v>10009</v>
-      </c>
-      <c r="C151" s="4">
-        <v>4229</v>
       </c>
       <c r="D151" s="4">
         <v>533</v>
@@ -4358,10 +4358,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="4">
+        <v>4386</v>
+      </c>
+      <c r="C152" s="4">
         <v>10471</v>
-      </c>
-      <c r="C152" s="4">
-        <v>4386</v>
       </c>
       <c r="D152" s="4">
         <v>495</v>
@@ -4375,10 +4375,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="4">
+        <v>2732</v>
+      </c>
+      <c r="C153" s="4">
         <v>5941</v>
-      </c>
-      <c r="C153" s="4">
-        <v>2732</v>
       </c>
       <c r="D153" s="4">
         <v>533</v>
@@ -4392,10 +4392,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="4">
+        <v>2093</v>
+      </c>
+      <c r="C154" s="4">
         <v>4427</v>
-      </c>
-      <c r="C154" s="4">
-        <v>2093</v>
       </c>
       <c r="D154" s="4">
         <v>563</v>
@@ -4409,10 +4409,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="4">
+        <v>5309</v>
+      </c>
+      <c r="C155" s="4">
         <v>11804</v>
-      </c>
-      <c r="C155" s="4">
-        <v>5309</v>
       </c>
       <c r="D155" s="4">
         <v>612</v>
@@ -4426,10 +4426,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="4">
+        <v>4760</v>
+      </c>
+      <c r="C156" s="4">
         <v>11021</v>
-      </c>
-      <c r="C156" s="4">
-        <v>4760</v>
       </c>
       <c r="D156" s="4">
         <v>565</v>
@@ -4443,10 +4443,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="4">
+        <v>4971</v>
+      </c>
+      <c r="C157" s="4">
         <v>11621</v>
-      </c>
-      <c r="C157" s="4">
-        <v>4971</v>
       </c>
       <c r="D157" s="4">
         <v>609</v>
@@ -4460,10 +4460,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="4">
+        <v>4923</v>
+      </c>
+      <c r="C158" s="4">
         <v>11497</v>
-      </c>
-      <c r="C158" s="4">
-        <v>4923</v>
       </c>
       <c r="D158" s="4">
         <v>592</v>
@@ -4477,10 +4477,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="4">
+        <v>5054</v>
+      </c>
+      <c r="C159" s="4">
         <v>11818</v>
-      </c>
-      <c r="C159" s="4">
-        <v>5054</v>
       </c>
       <c r="D159" s="4">
         <v>552</v>
@@ -4494,10 +4494,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="4">
+        <v>3032</v>
+      </c>
+      <c r="C160" s="4">
         <v>6353</v>
-      </c>
-      <c r="C160" s="4">
-        <v>3032</v>
       </c>
       <c r="D160" s="4">
         <v>601</v>
@@ -4511,10 +4511,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="4">
+        <v>2352</v>
+      </c>
+      <c r="C161" s="4">
         <v>4704</v>
-      </c>
-      <c r="C161" s="4">
-        <v>2352</v>
       </c>
       <c r="D161" s="4">
         <v>638</v>
@@ -4528,10 +4528,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="4">
+        <v>6174</v>
+      </c>
+      <c r="C162" s="4">
         <v>13336</v>
-      </c>
-      <c r="C162" s="4">
-        <v>6174</v>
       </c>
       <c r="D162" s="4">
         <v>687</v>
@@ -4545,10 +4545,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="4">
+        <v>5778</v>
+      </c>
+      <c r="C163" s="4">
         <v>13203</v>
-      </c>
-      <c r="C163" s="4">
-        <v>5778</v>
       </c>
       <c r="D163" s="4">
         <v>633</v>
@@ -4562,10 +4562,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="4">
+        <v>5743</v>
+      </c>
+      <c r="C164" s="4">
         <v>13105</v>
-      </c>
-      <c r="C164" s="4">
-        <v>5743</v>
       </c>
       <c r="D164" s="4">
         <v>654</v>
@@ -4579,10 +4579,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="4">
+        <v>5410</v>
+      </c>
+      <c r="C165" s="4">
         <v>12744</v>
-      </c>
-      <c r="C165" s="4">
-        <v>5410</v>
       </c>
       <c r="D165" s="4">
         <v>609</v>
@@ -4596,10 +4596,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="4">
+        <v>5647</v>
+      </c>
+      <c r="C166" s="4">
         <v>13255</v>
-      </c>
-      <c r="C166" s="4">
-        <v>5647</v>
       </c>
       <c r="D166" s="4">
         <v>669</v>
@@ -4613,10 +4613,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="4">
+        <v>3124</v>
+      </c>
+      <c r="C167" s="4">
         <v>6413</v>
-      </c>
-      <c r="C167" s="4">
-        <v>3124</v>
       </c>
       <c r="D167" s="4">
         <v>627</v>
@@ -4630,10 +4630,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="4">
+        <v>2600</v>
+      </c>
+      <c r="C168" s="4">
         <v>5230</v>
-      </c>
-      <c r="C168" s="4">
-        <v>2600</v>
       </c>
       <c r="D168" s="4">
         <v>654</v>
@@ -4647,10 +4647,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="4">
+        <v>6580</v>
+      </c>
+      <c r="C169" s="4">
         <v>14923</v>
-      </c>
-      <c r="C169" s="4">
-        <v>6580</v>
       </c>
       <c r="D169" s="4">
         <v>659</v>
@@ -4664,10 +4664,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="4">
+        <v>6428</v>
+      </c>
+      <c r="C170" s="4">
         <v>14376</v>
-      </c>
-      <c r="C170" s="4">
-        <v>6428</v>
       </c>
       <c r="D170" s="4">
         <v>728</v>
@@ -4681,10 +4681,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="4">
+        <v>6154</v>
+      </c>
+      <c r="C171" s="4">
         <v>13653</v>
-      </c>
-      <c r="C171" s="4">
-        <v>6154</v>
       </c>
       <c r="D171" s="4">
         <v>706</v>
@@ -4698,10 +4698,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="4">
+        <v>6096</v>
+      </c>
+      <c r="C172" s="4">
         <v>13454</v>
-      </c>
-      <c r="C172" s="4">
-        <v>6096</v>
       </c>
       <c r="D172" s="4">
         <v>632</v>
@@ -4715,10 +4715,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="4">
+        <v>6114</v>
+      </c>
+      <c r="C173" s="4">
         <v>13416</v>
-      </c>
-      <c r="C173" s="4">
-        <v>6114</v>
       </c>
       <c r="D173" s="4">
         <v>613</v>
@@ -4732,10 +4732,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="4">
+        <v>3573</v>
+      </c>
+      <c r="C174" s="4">
         <v>7208</v>
-      </c>
-      <c r="C174" s="4">
-        <v>3573</v>
       </c>
       <c r="D174" s="4">
         <v>554</v>
@@ -4749,10 +4749,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="4">
+        <v>2476</v>
+      </c>
+      <c r="C175" s="4">
         <v>4649</v>
-      </c>
-      <c r="C175" s="4">
-        <v>2476</v>
       </c>
       <c r="D175" s="4">
         <v>638</v>
@@ -4766,10 +4766,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="4">
+        <v>6903</v>
+      </c>
+      <c r="C176" s="4">
         <v>14160</v>
-      </c>
-      <c r="C176" s="4">
-        <v>6903</v>
       </c>
       <c r="D176" s="4">
         <v>632</v>
@@ -4783,10 +4783,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="4">
+        <v>6624</v>
+      </c>
+      <c r="C177" s="4">
         <v>14464</v>
-      </c>
-      <c r="C177" s="4">
-        <v>6624</v>
       </c>
       <c r="D177" s="4">
         <v>607</v>
@@ -4800,10 +4800,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="4">
+        <v>6310</v>
+      </c>
+      <c r="C178" s="4">
         <v>14267</v>
-      </c>
-      <c r="C178" s="4">
-        <v>6310</v>
       </c>
       <c r="D178" s="4">
         <v>602</v>
@@ -4817,10 +4817,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="4">
+        <v>6303</v>
+      </c>
+      <c r="C179" s="4">
         <v>15137</v>
-      </c>
-      <c r="C179" s="4">
-        <v>6303</v>
       </c>
       <c r="D179" s="4">
         <v>583</v>
@@ -4834,10 +4834,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="4">
+        <v>6572</v>
+      </c>
+      <c r="C180" s="4">
         <v>15431</v>
-      </c>
-      <c r="C180" s="4">
-        <v>6572</v>
       </c>
       <c r="D180" s="4">
         <v>650</v>
@@ -4851,10 +4851,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="4">
+        <v>3673</v>
+      </c>
+      <c r="C181" s="4">
         <v>8187</v>
-      </c>
-      <c r="C181" s="4">
-        <v>3673</v>
       </c>
       <c r="D181" s="4">
         <v>650</v>
@@ -4868,10 +4868,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="4">
+        <v>2955</v>
+      </c>
+      <c r="C182" s="4">
         <v>6174</v>
-      </c>
-      <c r="C182" s="4">
-        <v>2955</v>
       </c>
       <c r="D182" s="4">
         <v>642</v>
@@ -4885,10 +4885,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="4">
+        <v>7542</v>
+      </c>
+      <c r="C183" s="4">
         <v>17221</v>
-      </c>
-      <c r="C183" s="4">
-        <v>7542</v>
       </c>
       <c r="D183" s="4">
         <v>697</v>
@@ -4902,10 +4902,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="4">
+        <v>7221</v>
+      </c>
+      <c r="C184" s="4">
         <v>16427</v>
-      </c>
-      <c r="C184" s="4">
-        <v>7221</v>
       </c>
       <c r="D184" s="4">
         <v>673</v>
@@ -4919,10 +4919,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="4">
+        <v>7651</v>
+      </c>
+      <c r="C185" s="4">
         <v>16842</v>
-      </c>
-      <c r="C185" s="4">
-        <v>7651</v>
       </c>
       <c r="D185" s="4">
         <v>652</v>
@@ -4936,10 +4936,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="4">
+        <v>7084</v>
+      </c>
+      <c r="C186" s="4">
         <v>15690</v>
-      </c>
-      <c r="C186" s="4">
-        <v>7084</v>
       </c>
       <c r="D186" s="4">
         <v>650</v>
@@ -4953,10 +4953,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="4">
+        <v>7110</v>
+      </c>
+      <c r="C187" s="4">
         <v>15999</v>
-      </c>
-      <c r="C187" s="4">
-        <v>7110</v>
       </c>
       <c r="D187" s="4">
         <v>653</v>
@@ -4970,10 +4970,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="4">
+        <v>3678</v>
+      </c>
+      <c r="C188" s="4">
         <v>7345</v>
-      </c>
-      <c r="C188" s="4">
-        <v>3678</v>
       </c>
       <c r="D188" s="4">
         <v>693</v>
@@ -4987,10 +4987,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="4">
+        <v>2994</v>
+      </c>
+      <c r="C189" s="4">
         <v>5901</v>
-      </c>
-      <c r="C189" s="4">
-        <v>2994</v>
       </c>
       <c r="D189" s="4">
         <v>712</v>
@@ -5004,10 +5004,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="4">
+        <v>7864</v>
+      </c>
+      <c r="C190" s="4">
         <v>17382</v>
-      </c>
-      <c r="C190" s="4">
-        <v>7864</v>
       </c>
       <c r="D190" s="4">
         <v>780</v>
@@ -5021,10 +5021,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="4">
+        <v>7918</v>
+      </c>
+      <c r="C191" s="4">
         <v>17402</v>
-      </c>
-      <c r="C191" s="4">
-        <v>7918</v>
       </c>
       <c r="D191" s="4">
         <v>774</v>
@@ -5038,10 +5038,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="4">
+        <v>7489</v>
+      </c>
+      <c r="C192" s="4">
         <v>16731</v>
-      </c>
-      <c r="C192" s="4">
-        <v>7489</v>
       </c>
       <c r="D192" s="4">
         <v>700</v>
@@ -5055,10 +5055,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="4">
+        <v>7139</v>
+      </c>
+      <c r="C193" s="4">
         <v>15975</v>
-      </c>
-      <c r="C193" s="4">
-        <v>7139</v>
       </c>
       <c r="D193" s="4">
         <v>724</v>
@@ -5072,10 +5072,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="4">
+        <v>7226</v>
+      </c>
+      <c r="C194" s="4">
         <v>16107</v>
-      </c>
-      <c r="C194" s="4">
-        <v>7226</v>
       </c>
       <c r="D194" s="4">
         <v>688</v>
@@ -5089,10 +5089,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="4">
+        <v>3905</v>
+      </c>
+      <c r="C195" s="4">
         <v>7666</v>
-      </c>
-      <c r="C195" s="4">
-        <v>3905</v>
       </c>
       <c r="D195" s="4">
         <v>706</v>
@@ -5106,10 +5106,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="4">
+        <v>3251</v>
+      </c>
+      <c r="C196" s="4">
         <v>6025</v>
-      </c>
-      <c r="C196" s="4">
-        <v>3251</v>
       </c>
       <c r="D196" s="4">
         <v>711</v>
@@ -5123,10 +5123,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="4">
+        <v>8868</v>
+      </c>
+      <c r="C197" s="4">
         <v>18188</v>
-      </c>
-      <c r="C197" s="4">
-        <v>8868</v>
       </c>
       <c r="D197" s="4">
         <v>780</v>
@@ -5140,10 +5140,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="4">
+        <v>8491</v>
+      </c>
+      <c r="C198" s="4">
         <v>17521</v>
-      </c>
-      <c r="C198" s="4">
-        <v>8491</v>
       </c>
       <c r="D198" s="4">
         <v>755</v>
@@ -5157,10 +5157,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="4">
+        <v>8827</v>
+      </c>
+      <c r="C199" s="4">
         <v>18777</v>
-      </c>
-      <c r="C199" s="4">
-        <v>8827</v>
       </c>
       <c r="D199" s="4">
         <v>760</v>
@@ -5174,10 +5174,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="4">
+        <v>8257</v>
+      </c>
+      <c r="C200" s="4">
         <v>17821</v>
-      </c>
-      <c r="C200" s="4">
-        <v>8257</v>
       </c>
       <c r="D200" s="4">
         <v>772</v>
@@ -5191,10 +5191,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="4">
+        <v>7991</v>
+      </c>
+      <c r="C201" s="4">
         <v>17707</v>
-      </c>
-      <c r="C201" s="4">
-        <v>7991</v>
       </c>
       <c r="D201" s="4">
         <v>720</v>
@@ -5208,10 +5208,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="4">
+        <v>4411</v>
+      </c>
+      <c r="C202" s="4">
         <v>8800</v>
-      </c>
-      <c r="C202" s="4">
-        <v>4411</v>
       </c>
       <c r="D202" s="4">
         <v>703</v>
@@ -5225,10 +5225,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="4">
+        <v>3441</v>
+      </c>
+      <c r="C203" s="4">
         <v>6073</v>
-      </c>
-      <c r="C203" s="4">
-        <v>3441</v>
       </c>
       <c r="D203" s="4">
         <v>763</v>
@@ -5242,10 +5242,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="4">
+        <v>9107</v>
+      </c>
+      <c r="C204" s="4">
         <v>19120</v>
-      </c>
-      <c r="C204" s="4">
-        <v>9107</v>
       </c>
       <c r="D204" s="4">
         <v>758</v>
@@ -5259,10 +5259,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="4">
+        <v>8662</v>
+      </c>
+      <c r="C205" s="4">
         <v>18218</v>
-      </c>
-      <c r="C205" s="4">
-        <v>8662</v>
       </c>
       <c r="D205" s="4">
         <v>790</v>
@@ -5276,10 +5276,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="4">
+        <v>8322</v>
+      </c>
+      <c r="C206" s="4">
         <v>18113</v>
-      </c>
-      <c r="C206" s="4">
-        <v>8322</v>
       </c>
       <c r="D206" s="4">
         <v>689</v>
@@ -5293,10 +5293,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="4">
+        <v>8094</v>
+      </c>
+      <c r="C207" s="4">
         <v>17619</v>
-      </c>
-      <c r="C207" s="4">
-        <v>8094</v>
       </c>
       <c r="D207" s="4">
         <v>745</v>
@@ -5310,10 +5310,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="4">
+        <v>8029</v>
+      </c>
+      <c r="C208" s="4">
         <v>17561</v>
-      </c>
-      <c r="C208" s="4">
-        <v>8029</v>
       </c>
       <c r="D208" s="4">
         <v>696</v>
@@ -5327,10 +5327,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="4">
+        <v>4168</v>
+      </c>
+      <c r="C209" s="4">
         <v>8195</v>
-      </c>
-      <c r="C209" s="4">
-        <v>4168</v>
       </c>
       <c r="D209" s="4">
         <v>736</v>
@@ -5344,10 +5344,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="4">
+        <v>3018</v>
+      </c>
+      <c r="C210" s="4">
         <v>5849</v>
-      </c>
-      <c r="C210" s="4">
-        <v>3018</v>
       </c>
       <c r="D210" s="4">
         <v>755</v>
@@ -5361,10 +5361,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="4">
+        <v>8468</v>
+      </c>
+      <c r="C211" s="4">
         <v>17612</v>
-      </c>
-      <c r="C211" s="4">
-        <v>8468</v>
       </c>
       <c r="D211" s="4">
         <v>751</v>
@@ -5378,10 +5378,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="4">
+        <v>8179</v>
+      </c>
+      <c r="C212" s="4">
         <v>17612</v>
-      </c>
-      <c r="C212" s="4">
-        <v>8179</v>
       </c>
       <c r="D212" s="4">
         <v>729</v>
@@ -5395,10 +5395,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="4">
+        <v>7674</v>
+      </c>
+      <c r="C213" s="4">
         <v>16900</v>
-      </c>
-      <c r="C213" s="4">
-        <v>7674</v>
       </c>
       <c r="D213" s="4">
         <v>645</v>
@@ -5412,10 +5412,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="4">
+        <v>7588</v>
+      </c>
+      <c r="C214" s="4">
         <v>16869</v>
-      </c>
-      <c r="C214" s="4">
-        <v>7588</v>
       </c>
       <c r="D214" s="4">
         <v>720</v>
@@ -5429,10 +5429,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="4">
+        <v>6719</v>
+      </c>
+      <c r="C215" s="4">
         <v>15914</v>
-      </c>
-      <c r="C215" s="4">
-        <v>6719</v>
       </c>
       <c r="D215" s="4">
         <v>650</v>
@@ -5446,10 +5446,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="4">
+        <v>3813</v>
+      </c>
+      <c r="C216" s="4">
         <v>7916</v>
-      </c>
-      <c r="C216" s="4">
-        <v>3813</v>
       </c>
       <c r="D216" s="4">
         <v>700</v>
@@ -5463,10 +5463,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="4">
+        <v>2527</v>
+      </c>
+      <c r="C217" s="4">
         <v>4914</v>
-      </c>
-      <c r="C217" s="4">
-        <v>2527</v>
       </c>
       <c r="D217" s="4">
         <v>652</v>
@@ -5480,10 +5480,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="4">
+        <v>7488</v>
+      </c>
+      <c r="C218" s="4">
         <v>16283</v>
-      </c>
-      <c r="C218" s="4">
-        <v>7488</v>
       </c>
       <c r="D218" s="4">
         <v>712</v>
@@ -5497,10 +5497,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="4">
+        <v>7392</v>
+      </c>
+      <c r="C219" s="4">
         <v>16804</v>
-      </c>
-      <c r="C219" s="4">
-        <v>7392</v>
       </c>
       <c r="D219" s="4">
         <v>740</v>
@@ -5514,10 +5514,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="4">
+        <v>7174</v>
+      </c>
+      <c r="C220" s="4">
         <v>16498</v>
-      </c>
-      <c r="C220" s="4">
-        <v>7174</v>
       </c>
       <c r="D220" s="4">
         <v>679</v>
@@ -5531,10 +5531,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="4">
+        <v>6694</v>
+      </c>
+      <c r="C221" s="4">
         <v>15825</v>
-      </c>
-      <c r="C221" s="4">
-        <v>6694</v>
       </c>
       <c r="D221" s="4">
         <v>662</v>
@@ -5548,10 +5548,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="4">
+        <v>6617</v>
+      </c>
+      <c r="C222" s="4">
         <v>15859</v>
-      </c>
-      <c r="C222" s="4">
-        <v>6617</v>
       </c>
       <c r="D222" s="4">
         <v>612</v>
@@ -5565,10 +5565,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="4">
+        <v>3655</v>
+      </c>
+      <c r="C223" s="4">
         <v>7458</v>
-      </c>
-      <c r="C223" s="4">
-        <v>3655</v>
       </c>
       <c r="D223" s="4">
         <v>646</v>
@@ -5582,10 +5582,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="4">
+        <v>2401</v>
+      </c>
+      <c r="C224" s="4">
         <v>4709</v>
-      </c>
-      <c r="C224" s="4">
-        <v>2401</v>
       </c>
       <c r="D224" s="4">
         <v>624</v>
@@ -5599,10 +5599,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="4">
+        <v>7200</v>
+      </c>
+      <c r="C225" s="4">
         <v>16638</v>
-      </c>
-      <c r="C225" s="4">
-        <v>7200</v>
       </c>
       <c r="D225" s="4">
         <v>649</v>
@@ -5616,10 +5616,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="4">
+        <v>6908</v>
+      </c>
+      <c r="C226" s="4">
         <v>16429</v>
-      </c>
-      <c r="C226" s="4">
-        <v>6908</v>
       </c>
       <c r="D226" s="4">
         <v>647</v>
@@ -5633,10 +5633,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="4">
+        <v>6451</v>
+      </c>
+      <c r="C227" s="4">
         <v>15928</v>
-      </c>
-      <c r="C227" s="4">
-        <v>6451</v>
       </c>
       <c r="D227" s="4">
         <v>578</v>
@@ -5650,10 +5650,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="4">
+        <v>6442</v>
+      </c>
+      <c r="C228" s="4">
         <v>15761</v>
-      </c>
-      <c r="C228" s="4">
-        <v>6442</v>
       </c>
       <c r="D228" s="4">
         <v>586</v>
@@ -5667,10 +5667,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="4">
+        <v>6204</v>
+      </c>
+      <c r="C229" s="4">
         <v>15542</v>
-      </c>
-      <c r="C229" s="4">
-        <v>6204</v>
       </c>
       <c r="D229" s="4">
         <v>548</v>
@@ -5684,10 +5684,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="4">
+        <v>3221</v>
+      </c>
+      <c r="C230" s="4">
         <v>7198</v>
-      </c>
-      <c r="C230" s="4">
-        <v>3221</v>
       </c>
       <c r="D230" s="4">
         <v>547</v>
@@ -5701,10 +5701,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="4">
+        <v>2319</v>
+      </c>
+      <c r="C231" s="4">
         <v>4737</v>
-      </c>
-      <c r="C231" s="4">
-        <v>2319</v>
       </c>
       <c r="D231" s="4">
         <v>549</v>
@@ -5718,10 +5718,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="4">
+        <v>6898</v>
+      </c>
+      <c r="C232" s="4">
         <v>16081</v>
-      </c>
-      <c r="C232" s="4">
-        <v>6898</v>
       </c>
       <c r="D232" s="4">
         <v>595</v>
@@ -5735,10 +5735,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="4">
+        <v>6703</v>
+      </c>
+      <c r="C233" s="4">
         <v>16564</v>
-      </c>
-      <c r="C233" s="4">
-        <v>6703</v>
       </c>
       <c r="D233" s="4">
         <v>528</v>
@@ -5752,10 +5752,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="4">
+        <v>6275</v>
+      </c>
+      <c r="C234" s="4">
         <v>15616</v>
-      </c>
-      <c r="C234" s="4">
-        <v>6275</v>
       </c>
       <c r="D234" s="4">
         <v>565</v>
@@ -5769,10 +5769,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="4">
+        <v>6007</v>
+      </c>
+      <c r="C235" s="4">
         <v>14449</v>
-      </c>
-      <c r="C235" s="4">
-        <v>6007</v>
       </c>
       <c r="D235" s="4">
         <v>522</v>
@@ -5786,10 +5786,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="4">
+        <v>6311</v>
+      </c>
+      <c r="C236" s="4">
         <v>15631</v>
-      </c>
-      <c r="C236" s="4">
-        <v>6311</v>
       </c>
       <c r="D236" s="4">
         <v>530</v>
@@ -5803,10 +5803,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="4">
+        <v>3138</v>
+      </c>
+      <c r="C237" s="4">
         <v>7112</v>
-      </c>
-      <c r="C237" s="4">
-        <v>3138</v>
       </c>
       <c r="D237" s="4">
         <v>535</v>
@@ -5820,10 +5820,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="4">
+        <v>2322</v>
+      </c>
+      <c r="C238" s="4">
         <v>4689</v>
-      </c>
-      <c r="C238" s="4">
-        <v>2322</v>
       </c>
       <c r="D238" s="4">
         <v>497</v>
@@ -5837,10 +5837,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C239" s="4">
         <v>16031</v>
-      </c>
-      <c r="C239" s="4">
-        <v>7029</v>
       </c>
       <c r="D239" s="4">
         <v>509</v>
@@ -5854,10 +5854,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="4">
+        <v>6633</v>
+      </c>
+      <c r="C240" s="4">
         <v>16298</v>
-      </c>
-      <c r="C240" s="4">
-        <v>6633</v>
       </c>
       <c r="D240" s="4">
         <v>528</v>
@@ -5871,10 +5871,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C241" s="4">
         <v>17988</v>
-      </c>
-      <c r="C241" s="4">
-        <v>7033</v>
       </c>
       <c r="D241" s="4">
         <v>499</v>
@@ -5888,10 +5888,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="4">
+        <v>6451</v>
+      </c>
+      <c r="C242" s="4">
         <v>17193</v>
-      </c>
-      <c r="C242" s="4">
-        <v>6451</v>
       </c>
       <c r="D242" s="4">
         <v>473</v>
@@ -5905,10 +5905,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="4">
+        <v>6344</v>
+      </c>
+      <c r="C243" s="4">
         <v>17037</v>
-      </c>
-      <c r="C243" s="4">
-        <v>6344</v>
       </c>
       <c r="D243" s="4">
         <v>503</v>
@@ -5922,10 +5922,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="4">
+        <v>3124</v>
+      </c>
+      <c r="C244" s="4">
         <v>8165</v>
-      </c>
-      <c r="C244" s="4">
-        <v>3124</v>
       </c>
       <c r="D244" s="4">
         <v>485</v>
@@ -5939,10 +5939,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="4">
+        <v>2183</v>
+      </c>
+      <c r="C245" s="4">
         <v>4687</v>
-      </c>
-      <c r="C245" s="4">
-        <v>2183</v>
       </c>
       <c r="D245" s="4">
         <v>506</v>
@@ -5956,10 +5956,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="4">
+        <v>6965</v>
+      </c>
+      <c r="C246" s="4">
         <v>16663</v>
-      </c>
-      <c r="C246" s="4">
-        <v>6965</v>
       </c>
       <c r="D246" s="4">
         <v>520</v>
@@ -5973,10 +5973,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="4">
+        <v>7109</v>
+      </c>
+      <c r="C247" s="4">
         <v>17798</v>
-      </c>
-      <c r="C247" s="4">
-        <v>7109</v>
       </c>
       <c r="D247" s="4">
         <v>476</v>
@@ -5990,10 +5990,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="4">
+        <v>6953</v>
+      </c>
+      <c r="C248" s="4">
         <v>17658</v>
-      </c>
-      <c r="C248" s="4">
-        <v>6953</v>
       </c>
       <c r="D248" s="4">
         <v>473</v>
@@ -6007,10 +6007,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="4">
+        <v>6285</v>
+      </c>
+      <c r="C249" s="4">
         <v>16938</v>
-      </c>
-      <c r="C249" s="4">
-        <v>6285</v>
       </c>
       <c r="D249" s="4">
         <v>470</v>
@@ -6024,10 +6024,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="4">
+        <v>6069</v>
+      </c>
+      <c r="C250" s="4">
         <v>16778</v>
-      </c>
-      <c r="C250" s="4">
-        <v>6069</v>
       </c>
       <c r="D250" s="4">
         <v>450</v>
@@ -6041,10 +6041,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="4">
+        <v>2873</v>
+      </c>
+      <c r="C251" s="4">
         <v>7251</v>
-      </c>
-      <c r="C251" s="4">
-        <v>2873</v>
       </c>
       <c r="D251" s="4">
         <v>430</v>
@@ -6058,10 +6058,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="4">
+        <v>2059</v>
+      </c>
+      <c r="C252" s="4">
         <v>4455</v>
-      </c>
-      <c r="C252" s="4">
-        <v>2059</v>
       </c>
       <c r="D252" s="4">
         <v>438</v>
@@ -6075,10 +6075,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="4">
+        <v>6388</v>
+      </c>
+      <c r="C253" s="4">
         <v>16430</v>
-      </c>
-      <c r="C253" s="4">
-        <v>6388</v>
       </c>
       <c r="D253" s="4">
         <v>457</v>
@@ -6092,10 +6092,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="4">
+        <v>6621</v>
+      </c>
+      <c r="C254" s="4">
         <v>17192</v>
-      </c>
-      <c r="C254" s="4">
-        <v>6621</v>
       </c>
       <c r="D254" s="4">
         <v>415</v>
@@ -6109,10 +6109,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="4">
+        <v>6065</v>
+      </c>
+      <c r="C255" s="4">
         <v>16648</v>
-      </c>
-      <c r="C255" s="4">
-        <v>6065</v>
       </c>
       <c r="D255" s="4">
         <v>452</v>
@@ -6126,10 +6126,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="4">
+        <v>5710</v>
+      </c>
+      <c r="C256" s="4">
         <v>16290</v>
-      </c>
-      <c r="C256" s="4">
-        <v>5710</v>
       </c>
       <c r="D256" s="4">
         <v>407</v>
@@ -6143,10 +6143,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="4">
+        <v>5512</v>
+      </c>
+      <c r="C257" s="4">
         <v>15575</v>
-      </c>
-      <c r="C257" s="4">
-        <v>5512</v>
       </c>
       <c r="D257" s="4">
         <v>409</v>
@@ -6160,10 +6160,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="4">
+        <v>2781</v>
+      </c>
+      <c r="C258" s="4">
         <v>6811</v>
-      </c>
-      <c r="C258" s="4">
-        <v>2781</v>
       </c>
       <c r="D258" s="4">
         <v>442</v>
@@ -6177,10 +6177,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="4">
+        <v>1875</v>
+      </c>
+      <c r="C259" s="4">
         <v>4224</v>
-      </c>
-      <c r="C259" s="4">
-        <v>1875</v>
       </c>
       <c r="D259" s="4">
         <v>373</v>
@@ -6194,10 +6194,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="4">
+        <v>6249</v>
+      </c>
+      <c r="C260" s="4">
         <v>16121</v>
-      </c>
-      <c r="C260" s="4">
-        <v>6249</v>
       </c>
       <c r="D260" s="4">
         <v>432</v>
@@ -6211,10 +6211,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="4">
+        <v>4315</v>
+      </c>
+      <c r="C261" s="4">
         <v>11997</v>
-      </c>
-      <c r="C261" s="4">
-        <v>4315</v>
       </c>
       <c r="D261" s="4">
         <v>423</v>
@@ -6228,10 +6228,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="4">
+        <v>2190</v>
+      </c>
+      <c r="C262" s="4">
         <v>4856</v>
-      </c>
-      <c r="C262" s="4">
-        <v>2190</v>
       </c>
       <c r="D262" s="4">
         <v>394</v>
@@ -6245,10 +6245,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="4">
+        <v>6368</v>
+      </c>
+      <c r="C263" s="4">
         <v>16475</v>
-      </c>
-      <c r="C263" s="4">
-        <v>6368</v>
       </c>
       <c r="D263" s="4">
         <v>379</v>
@@ -6262,10 +6262,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="4">
+        <v>5693</v>
+      </c>
+      <c r="C264" s="4">
         <v>16035</v>
-      </c>
-      <c r="C264" s="4">
-        <v>5693</v>
       </c>
       <c r="D264" s="4">
         <v>347</v>
@@ -6279,10 +6279,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="4">
+        <v>2776</v>
+      </c>
+      <c r="C265" s="4">
         <v>6731</v>
-      </c>
-      <c r="C265" s="4">
-        <v>2776</v>
       </c>
       <c r="D265" s="4">
         <v>379</v>
@@ -6296,10 +6296,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="4">
+        <v>1795</v>
+      </c>
+      <c r="C266" s="4">
         <v>4068</v>
-      </c>
-      <c r="C266" s="4">
-        <v>1795</v>
       </c>
       <c r="D266" s="4">
         <v>402</v>
@@ -6313,10 +6313,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="4">
+        <v>6279</v>
+      </c>
+      <c r="C267" s="4">
         <v>15952</v>
-      </c>
-      <c r="C267" s="4">
-        <v>6279</v>
       </c>
       <c r="D267" s="4">
         <v>384</v>
@@ -6330,10 +6330,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="4">
+        <v>6163</v>
+      </c>
+      <c r="C268" s="4">
         <v>16510</v>
-      </c>
-      <c r="C268" s="4">
-        <v>6163</v>
       </c>
       <c r="D268" s="4">
         <v>401</v>
@@ -6347,10 +6347,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="4">
+        <v>5794</v>
+      </c>
+      <c r="C269" s="4">
         <v>15821</v>
-      </c>
-      <c r="C269" s="4">
-        <v>5794</v>
       </c>
       <c r="D269" s="4">
         <v>381</v>
@@ -6364,10 +6364,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="4">
+        <v>5362</v>
+      </c>
+      <c r="C270" s="4">
         <v>15065</v>
-      </c>
-      <c r="C270" s="4">
-        <v>5362</v>
       </c>
       <c r="D270" s="4">
         <v>384</v>
@@ -6381,10 +6381,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="4">
+        <v>5283</v>
+      </c>
+      <c r="C271" s="4">
         <v>15021</v>
-      </c>
-      <c r="C271" s="4">
-        <v>5283</v>
       </c>
       <c r="D271" s="4">
         <v>341</v>
@@ -6398,10 +6398,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="4">
+        <v>2635</v>
+      </c>
+      <c r="C272" s="4">
         <v>6698</v>
-      </c>
-      <c r="C272" s="4">
-        <v>2635</v>
       </c>
       <c r="D272" s="4">
         <v>366</v>
@@ -6415,10 +6415,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="4">
+        <v>1780</v>
+      </c>
+      <c r="C273" s="4">
         <v>4069</v>
-      </c>
-      <c r="C273" s="4">
-        <v>1780</v>
       </c>
       <c r="D273" s="4">
         <v>346</v>
@@ -6432,10 +6432,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="4">
+        <v>6213</v>
+      </c>
+      <c r="C274" s="4">
         <v>16344</v>
-      </c>
-      <c r="C274" s="4">
-        <v>6213</v>
       </c>
       <c r="D274" s="4">
         <v>348</v>
@@ -6449,10 +6449,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="4">
+        <v>5990</v>
+      </c>
+      <c r="C275" s="4">
         <v>16579</v>
-      </c>
-      <c r="C275" s="4">
-        <v>5990</v>
       </c>
       <c r="D275" s="4">
         <v>344</v>
@@ -6466,10 +6466,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="4">
+        <v>5514</v>
+      </c>
+      <c r="C276" s="4">
         <v>15600</v>
-      </c>
-      <c r="C276" s="4">
-        <v>5514</v>
       </c>
       <c r="D276" s="4">
         <v>334</v>
@@ -6483,10 +6483,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="4">
+        <v>5266</v>
+      </c>
+      <c r="C277" s="4">
         <v>14691</v>
-      </c>
-      <c r="C277" s="4">
-        <v>5266</v>
       </c>
       <c r="D277" s="4">
         <v>347</v>
@@ -6500,10 +6500,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="4">
+        <v>5042</v>
+      </c>
+      <c r="C278" s="4">
         <v>14349</v>
-      </c>
-      <c r="C278" s="4">
-        <v>5042</v>
       </c>
       <c r="D278" s="4">
         <v>343</v>
@@ -6517,10 +6517,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="4">
+        <v>2413</v>
+      </c>
+      <c r="C279" s="4">
         <v>6277</v>
-      </c>
-      <c r="C279" s="4">
-        <v>2413</v>
       </c>
       <c r="D279" s="4">
         <v>351</v>
@@ -6534,10 +6534,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="4">
+        <v>1709</v>
+      </c>
+      <c r="C280" s="4">
         <v>3994</v>
-      </c>
-      <c r="C280" s="4">
-        <v>1709</v>
       </c>
       <c r="D280" s="4">
         <v>331</v>
@@ -6551,10 +6551,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="4">
+        <v>5800</v>
+      </c>
+      <c r="C281" s="4">
         <v>14571</v>
-      </c>
-      <c r="C281" s="4">
-        <v>5800</v>
       </c>
       <c r="D281" s="4">
         <v>358</v>
@@ -6568,10 +6568,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="4">
+        <v>5943</v>
+      </c>
+      <c r="C282" s="4">
         <v>16031</v>
-      </c>
-      <c r="C282" s="4">
-        <v>5943</v>
       </c>
       <c r="D282" s="4">
         <v>343</v>
@@ -6585,10 +6585,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="4">
+        <v>5678</v>
+      </c>
+      <c r="C283" s="4">
         <v>15491</v>
-      </c>
-      <c r="C283" s="4">
-        <v>5678</v>
       </c>
       <c r="D283" s="4">
         <v>333</v>
@@ -6602,10 +6602,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="4">
+        <v>5493</v>
+      </c>
+      <c r="C284" s="4">
         <v>14865</v>
-      </c>
-      <c r="C284" s="4">
-        <v>5493</v>
       </c>
       <c r="D284" s="4">
         <v>327</v>
@@ -6619,10 +6619,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="4">
+        <v>5722</v>
+      </c>
+      <c r="C285" s="4">
         <v>14809</v>
-      </c>
-      <c r="C285" s="4">
-        <v>5722</v>
       </c>
       <c r="D285" s="4">
         <v>305</v>
@@ -6636,10 +6636,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="4">
+        <v>3006</v>
+      </c>
+      <c r="C286" s="4">
         <v>6713</v>
-      </c>
-      <c r="C286" s="4">
-        <v>3006</v>
       </c>
       <c r="D286" s="4">
         <v>361</v>
@@ -6653,10 +6653,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="4">
+        <v>2138</v>
+      </c>
+      <c r="C287" s="4">
         <v>4485</v>
-      </c>
-      <c r="C287" s="4">
-        <v>2138</v>
       </c>
       <c r="D287" s="4">
         <v>345</v>
@@ -6670,10 +6670,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="4">
+        <v>6745</v>
+      </c>
+      <c r="C288" s="4">
         <v>16519</v>
-      </c>
-      <c r="C288" s="4">
-        <v>6745</v>
       </c>
       <c r="D288" s="4">
         <v>397</v>
@@ -6687,10 +6687,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="4">
+        <v>7096</v>
+      </c>
+      <c r="C289" s="4">
         <v>17951</v>
-      </c>
-      <c r="C289" s="4">
-        <v>7096</v>
       </c>
       <c r="D289" s="4">
         <v>360</v>
@@ -6704,10 +6704,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="4">
+        <v>6486</v>
+      </c>
+      <c r="C290" s="4">
         <v>16860</v>
-      </c>
-      <c r="C290" s="4">
-        <v>6486</v>
       </c>
       <c r="D290" s="4">
         <v>349</v>
@@ -6721,10 +6721,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="4">
+        <v>6460</v>
+      </c>
+      <c r="C291" s="4">
         <v>15754</v>
-      </c>
-      <c r="C291" s="4">
-        <v>6460</v>
       </c>
       <c r="D291" s="4">
         <v>369</v>
@@ -6738,10 +6738,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="4">
+        <v>6628</v>
+      </c>
+      <c r="C292" s="4">
         <v>16865</v>
-      </c>
-      <c r="C292" s="4">
-        <v>6628</v>
       </c>
       <c r="D292" s="4">
         <v>346</v>
@@ -6755,10 +6755,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="4">
+        <v>3293</v>
+      </c>
+      <c r="C293" s="4">
         <v>7444</v>
-      </c>
-      <c r="C293" s="4">
-        <v>3293</v>
       </c>
       <c r="D293" s="4">
         <v>371</v>
@@ -6772,10 +6772,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="4">
+        <v>2266</v>
+      </c>
+      <c r="C294" s="4">
         <v>4917</v>
-      </c>
-      <c r="C294" s="4">
-        <v>2266</v>
       </c>
       <c r="D294" s="4">
         <v>379</v>
@@ -6789,10 +6789,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="4">
+        <v>8182</v>
+      </c>
+      <c r="C295" s="4">
         <v>19781</v>
-      </c>
-      <c r="C295" s="4">
-        <v>8182</v>
       </c>
       <c r="D295" s="4">
         <v>449</v>
@@ -6806,10 +6806,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="4">
+        <v>8380</v>
+      </c>
+      <c r="C296" s="4">
         <v>20697</v>
-      </c>
-      <c r="C296" s="4">
-        <v>8380</v>
       </c>
       <c r="D296" s="4">
         <v>396</v>
@@ -6823,10 +6823,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="4">
+        <v>7364</v>
+      </c>
+      <c r="C297" s="4">
         <v>19898</v>
-      </c>
-      <c r="C297" s="4">
-        <v>7364</v>
       </c>
       <c r="D297" s="4">
         <v>448</v>
@@ -6840,10 +6840,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="4">
+        <v>7258</v>
+      </c>
+      <c r="C298" s="4">
         <v>19758</v>
-      </c>
-      <c r="C298" s="4">
-        <v>7258</v>
       </c>
       <c r="D298" s="4">
         <v>437</v>
@@ -6857,10 +6857,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="4">
+        <v>7229</v>
+      </c>
+      <c r="C299" s="4">
         <v>19278</v>
-      </c>
-      <c r="C299" s="4">
-        <v>7229</v>
       </c>
       <c r="D299" s="4">
         <v>420</v>
@@ -6874,10 +6874,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="4">
+        <v>3459</v>
+      </c>
+      <c r="C300" s="4">
         <v>8129</v>
-      </c>
-      <c r="C300" s="4">
-        <v>3459</v>
       </c>
       <c r="D300" s="4">
         <v>406</v>
@@ -6891,10 +6891,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="4">
+        <v>2414</v>
+      </c>
+      <c r="C301" s="4">
         <v>5314</v>
-      </c>
-      <c r="C301" s="4">
-        <v>2414</v>
       </c>
       <c r="D301" s="4">
         <v>458</v>
@@ -6908,10 +6908,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="4">
+        <v>8269</v>
+      </c>
+      <c r="C302" s="4">
         <v>21446</v>
-      </c>
-      <c r="C302" s="4">
-        <v>8269</v>
       </c>
       <c r="D302" s="4">
         <v>457</v>
@@ -6925,10 +6925,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="4">
+        <v>7969</v>
+      </c>
+      <c r="C303" s="4">
         <v>21686</v>
-      </c>
-      <c r="C303" s="4">
-        <v>7969</v>
       </c>
       <c r="D303" s="4">
         <v>432</v>
@@ -6942,10 +6942,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="4">
+        <v>7165</v>
+      </c>
+      <c r="C304" s="4">
         <v>20710</v>
-      </c>
-      <c r="C304" s="4">
-        <v>7165</v>
       </c>
       <c r="D304" s="4">
         <v>444</v>
@@ -6959,10 +6959,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="4">
+        <v>6842</v>
+      </c>
+      <c r="C305" s="4">
         <v>19780</v>
-      </c>
-      <c r="C305" s="4">
-        <v>6842</v>
       </c>
       <c r="D305" s="4">
         <v>438</v>
@@ -6976,10 +6976,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="4">
+        <v>6276</v>
+      </c>
+      <c r="C306" s="4">
         <v>17334</v>
-      </c>
-      <c r="C306" s="4">
-        <v>6276</v>
       </c>
       <c r="D306" s="4">
         <v>433</v>
@@ -6993,10 +6993,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="4">
+        <v>2935</v>
+      </c>
+      <c r="C307" s="4">
         <v>7143</v>
-      </c>
-      <c r="C307" s="4">
-        <v>2935</v>
       </c>
       <c r="D307" s="4">
         <v>412</v>
@@ -7010,10 +7010,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="4">
+        <v>2086</v>
+      </c>
+      <c r="C308" s="4">
         <v>4429</v>
-      </c>
-      <c r="C308" s="4">
-        <v>2086</v>
       </c>
       <c r="D308" s="4">
         <v>423</v>
@@ -7027,10 +7027,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="4">
+        <v>5078</v>
+      </c>
+      <c r="C309" s="4">
         <v>11150</v>
-      </c>
-      <c r="C309" s="4">
-        <v>5078</v>
       </c>
       <c r="D309" s="4">
         <v>467</v>
@@ -7044,10 +7044,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="4">
+        <v>8030</v>
+      </c>
+      <c r="C310" s="4">
         <v>20226</v>
-      </c>
-      <c r="C310" s="4">
-        <v>8030</v>
       </c>
       <c r="D310" s="4">
         <v>449</v>
@@ -7061,10 +7061,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="4">
+        <v>7505</v>
+      </c>
+      <c r="C311" s="4">
         <v>19603</v>
-      </c>
-      <c r="C311" s="4">
-        <v>7505</v>
       </c>
       <c r="D311" s="4">
         <v>453</v>
@@ -7078,10 +7078,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="4">
+        <v>7418</v>
+      </c>
+      <c r="C312" s="4">
         <v>19529</v>
-      </c>
-      <c r="C312" s="4">
-        <v>7418</v>
       </c>
       <c r="D312" s="4">
         <v>474</v>
@@ -7095,10 +7095,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="4">
+        <v>7009</v>
+      </c>
+      <c r="C313" s="4">
         <v>18000</v>
-      </c>
-      <c r="C313" s="4">
-        <v>7009</v>
       </c>
       <c r="D313" s="4">
         <v>495</v>
@@ -7112,10 +7112,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="4">
+        <v>3443</v>
+      </c>
+      <c r="C314" s="4">
         <v>7605</v>
-      </c>
-      <c r="C314" s="4">
-        <v>3443</v>
       </c>
       <c r="D314" s="4">
         <v>430</v>
@@ -7129,10 +7129,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="4">
+        <v>2532</v>
+      </c>
+      <c r="C315" s="4">
         <v>4958</v>
-      </c>
-      <c r="C315" s="4">
-        <v>2532</v>
       </c>
       <c r="D315" s="4">
         <v>439</v>
@@ -7146,10 +7146,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="4">
+        <v>8587</v>
+      </c>
+      <c r="C316" s="4">
         <v>21378</v>
-      </c>
-      <c r="C316" s="4">
-        <v>8587</v>
       </c>
       <c r="D316" s="4">
         <v>463</v>
@@ -7163,10 +7163,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="4">
+        <v>8616</v>
+      </c>
+      <c r="C317" s="4">
         <v>21280</v>
-      </c>
-      <c r="C317" s="4">
-        <v>8616</v>
       </c>
       <c r="D317" s="4">
         <v>440</v>
@@ -7180,10 +7180,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="4">
+        <v>8321</v>
+      </c>
+      <c r="C318" s="4">
         <v>20114</v>
-      </c>
-      <c r="C318" s="4">
-        <v>8321</v>
       </c>
       <c r="D318" s="4">
         <v>467</v>
@@ -7197,10 +7197,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="4">
+        <v>8165</v>
+      </c>
+      <c r="C319" s="4">
         <v>19989</v>
-      </c>
-      <c r="C319" s="4">
-        <v>8165</v>
       </c>
       <c r="D319" s="4">
         <v>487</v>
@@ -7214,10 +7214,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="4">
+        <v>7546</v>
+      </c>
+      <c r="C320" s="4">
         <v>18962</v>
-      </c>
-      <c r="C320" s="4">
-        <v>7546</v>
       </c>
       <c r="D320" s="4">
         <v>455</v>
@@ -7231,10 +7231,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="4">
+        <v>3841</v>
+      </c>
+      <c r="C321" s="4">
         <v>8584</v>
-      </c>
-      <c r="C321" s="4">
-        <v>3841</v>
       </c>
       <c r="D321" s="4">
         <v>443</v>
@@ -7248,10 +7248,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="4">
+        <v>2584</v>
+      </c>
+      <c r="C322" s="4">
         <v>5210</v>
-      </c>
-      <c r="C322" s="4">
-        <v>2584</v>
       </c>
       <c r="D322" s="4">
         <v>443</v>
@@ -7265,10 +7265,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="4">
+        <v>3147</v>
+      </c>
+      <c r="C323" s="4">
         <v>6208</v>
-      </c>
-      <c r="C323" s="4">
-        <v>3147</v>
       </c>
       <c r="D323" s="4">
         <v>465</v>
@@ -7282,10 +7282,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="4">
+        <v>9519</v>
+      </c>
+      <c r="C324" s="4">
         <v>22759</v>
-      </c>
-      <c r="C324" s="4">
-        <v>9519</v>
       </c>
       <c r="D324" s="4">
         <v>482</v>
@@ -7299,10 +7299,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="4">
+        <v>8719</v>
+      </c>
+      <c r="C325" s="4">
         <v>20706</v>
-      </c>
-      <c r="C325" s="4">
-        <v>8719</v>
       </c>
       <c r="D325" s="4">
         <v>474</v>
@@ -7316,10 +7316,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="4">
+        <v>8273</v>
+      </c>
+      <c r="C326" s="4">
         <v>19067</v>
-      </c>
-      <c r="C326" s="4">
-        <v>8273</v>
       </c>
       <c r="D326" s="4">
         <v>443</v>
@@ -7333,10 +7333,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="4">
+        <v>8286</v>
+      </c>
+      <c r="C327" s="4">
         <v>20291</v>
-      </c>
-      <c r="C327" s="4">
-        <v>8286</v>
       </c>
       <c r="D327" s="4">
         <v>519</v>
@@ -7350,10 +7350,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="4">
+        <v>4155</v>
+      </c>
+      <c r="C328" s="4">
         <v>10101</v>
-      </c>
-      <c r="C328" s="4">
-        <v>4155</v>
       </c>
       <c r="D328" s="4">
         <v>510</v>
@@ -7367,10 +7367,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="4">
+        <v>2695</v>
+      </c>
+      <c r="C329" s="4">
         <v>5399</v>
-      </c>
-      <c r="C329" s="4">
-        <v>2695</v>
       </c>
       <c r="D329" s="4">
         <v>568</v>
@@ -7384,10 +7384,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="4">
+        <v>10188</v>
+      </c>
+      <c r="C330" s="4">
         <v>23718</v>
-      </c>
-      <c r="C330" s="4">
-        <v>10188</v>
       </c>
       <c r="D330" s="4">
         <v>515</v>
@@ -7401,10 +7401,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="4">
+        <v>10273</v>
+      </c>
+      <c r="C331" s="4">
         <v>25660</v>
-      </c>
-      <c r="C331" s="4">
-        <v>10273</v>
       </c>
       <c r="D331" s="4">
         <v>517</v>
@@ -7418,10 +7418,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="4">
+        <v>9490</v>
+      </c>
+      <c r="C332" s="4">
         <v>24359</v>
-      </c>
-      <c r="C332" s="4">
-        <v>9490</v>
       </c>
       <c r="D332" s="4">
         <v>504</v>
@@ -7435,10 +7435,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="4">
+        <v>9554</v>
+      </c>
+      <c r="C333" s="4">
         <v>24508</v>
-      </c>
-      <c r="C333" s="4">
-        <v>9554</v>
       </c>
       <c r="D333" s="4">
         <v>539</v>
@@ -7452,10 +7452,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="4">
+        <v>9458</v>
+      </c>
+      <c r="C334" s="4">
         <v>24203</v>
-      </c>
-      <c r="C334" s="4">
-        <v>9458</v>
       </c>
       <c r="D334" s="4">
         <v>572</v>
@@ -7469,10 +7469,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="4">
+        <v>4784</v>
+      </c>
+      <c r="C335" s="4">
         <v>11671</v>
-      </c>
-      <c r="C335" s="4">
-        <v>4784</v>
       </c>
       <c r="D335" s="4">
         <v>521</v>
@@ -7486,10 +7486,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="4">
+        <v>2912</v>
+      </c>
+      <c r="C336" s="4">
         <v>6128</v>
-      </c>
-      <c r="C336" s="4">
-        <v>2912</v>
       </c>
       <c r="D336" s="4">
         <v>534</v>
@@ -7503,10 +7503,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="4">
+        <v>10769</v>
+      </c>
+      <c r="C337" s="4">
         <v>27575</v>
-      </c>
-      <c r="C337" s="4">
-        <v>10769</v>
       </c>
       <c r="D337" s="4">
         <v>590</v>
@@ -7520,10 +7520,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="4">
+        <v>11390</v>
+      </c>
+      <c r="C338" s="4">
         <v>29800</v>
-      </c>
-      <c r="C338" s="4">
-        <v>11390</v>
       </c>
       <c r="D338" s="4">
         <v>617</v>
@@ -7537,10 +7537,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="4">
+        <v>11316</v>
+      </c>
+      <c r="C339" s="4">
         <v>30480</v>
-      </c>
-      <c r="C339" s="4">
-        <v>11316</v>
       </c>
       <c r="D339" s="4">
         <v>568</v>
@@ -7554,10 +7554,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="4">
+        <v>11109</v>
+      </c>
+      <c r="C340" s="4">
         <v>31183</v>
-      </c>
-      <c r="C340" s="4">
-        <v>11109</v>
       </c>
       <c r="D340" s="4">
         <v>556</v>
@@ -7571,10 +7571,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="4">
+        <v>10791</v>
+      </c>
+      <c r="C341" s="4">
         <v>30762</v>
-      </c>
-      <c r="C341" s="4">
-        <v>10791</v>
       </c>
       <c r="D341" s="4">
         <v>546</v>
@@ -7588,10 +7588,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="4">
+        <v>5852</v>
+      </c>
+      <c r="C342" s="4">
         <v>15474</v>
-      </c>
-      <c r="C342" s="4">
-        <v>5852</v>
       </c>
       <c r="D342" s="4">
         <v>600</v>
@@ -7605,10 +7605,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="4">
+        <v>3068</v>
+      </c>
+      <c r="C343" s="4">
         <v>6276</v>
-      </c>
-      <c r="C343" s="4">
-        <v>3068</v>
       </c>
       <c r="D343" s="4">
         <v>597</v>
@@ -7622,10 +7622,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="4">
+        <v>12788</v>
+      </c>
+      <c r="C344" s="4">
         <v>33136</v>
-      </c>
-      <c r="C344" s="4">
-        <v>12788</v>
       </c>
       <c r="D344" s="4">
         <v>623</v>
@@ -7639,10 +7639,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="4">
+        <v>12848</v>
+      </c>
+      <c r="C345" s="4">
         <v>32990</v>
-      </c>
-      <c r="C345" s="4">
-        <v>12848</v>
       </c>
       <c r="D345" s="4">
         <v>578</v>
@@ -7656,10 +7656,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="4">
+        <v>12278</v>
+      </c>
+      <c r="C346" s="4">
         <v>33244</v>
-      </c>
-      <c r="C346" s="4">
-        <v>12278</v>
       </c>
       <c r="D346" s="4">
         <v>635</v>
@@ -7673,10 +7673,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="4">
+        <v>12372</v>
+      </c>
+      <c r="C347" s="4">
         <v>34364</v>
-      </c>
-      <c r="C347" s="4">
-        <v>12372</v>
       </c>
       <c r="D347" s="4">
         <v>609</v>
@@ -7690,10 +7690,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="4">
+        <v>12340</v>
+      </c>
+      <c r="C348" s="4">
         <v>33570</v>
-      </c>
-      <c r="C348" s="4">
-        <v>12340</v>
       </c>
       <c r="D348" s="4">
         <v>656</v>
@@ -7707,10 +7707,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="4">
+        <v>6709</v>
+      </c>
+      <c r="C349" s="4">
         <v>16124</v>
-      </c>
-      <c r="C349" s="4">
-        <v>6709</v>
       </c>
       <c r="D349" s="4">
         <v>660</v>
@@ -7724,10 +7724,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="4">
+        <v>3335</v>
+      </c>
+      <c r="C350" s="4">
         <v>6770</v>
-      </c>
-      <c r="C350" s="4">
-        <v>3335</v>
       </c>
       <c r="D350" s="4">
         <v>665</v>
@@ -7741,10 +7741,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="4">
+        <v>14051</v>
+      </c>
+      <c r="C351" s="4">
         <v>35964</v>
-      </c>
-      <c r="C351" s="4">
-        <v>14051</v>
       </c>
       <c r="D351" s="4">
         <v>677</v>
@@ -7758,10 +7758,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="4">
+        <v>13818</v>
+      </c>
+      <c r="C352" s="4">
         <v>34990</v>
-      </c>
-      <c r="C352" s="4">
-        <v>13818</v>
       </c>
       <c r="D352" s="4">
         <v>705</v>
@@ -7775,10 +7775,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="4">
+        <v>12994</v>
+      </c>
+      <c r="C353" s="4">
         <v>34209</v>
-      </c>
-      <c r="C353" s="4">
-        <v>12994</v>
       </c>
       <c r="D353" s="4">
         <v>681</v>
@@ -7792,10 +7792,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="4">
+        <v>12670</v>
+      </c>
+      <c r="C354" s="4">
         <v>33758</v>
-      </c>
-      <c r="C354" s="4">
-        <v>12670</v>
       </c>
       <c r="D354" s="4">
         <v>693</v>
@@ -7809,10 +7809,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="4">
+        <v>12360</v>
+      </c>
+      <c r="C355" s="4">
         <v>34784</v>
-      </c>
-      <c r="C355" s="4">
-        <v>12360</v>
       </c>
       <c r="D355" s="4">
         <v>706</v>
@@ -7826,10 +7826,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="4">
+        <v>6490</v>
+      </c>
+      <c r="C356" s="4">
         <v>17677</v>
-      </c>
-      <c r="C356" s="4">
-        <v>6490</v>
       </c>
       <c r="D356" s="4">
         <v>748</v>
@@ -7843,10 +7843,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="4">
+        <v>3695</v>
+      </c>
+      <c r="C357" s="4">
         <v>7214</v>
-      </c>
-      <c r="C357" s="4">
-        <v>3695</v>
       </c>
       <c r="D357" s="4">
         <v>713</v>
@@ -7860,10 +7860,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="4">
+        <v>14075</v>
+      </c>
+      <c r="C358" s="4">
         <v>37917</v>
-      </c>
-      <c r="C358" s="4">
-        <v>14075</v>
       </c>
       <c r="D358" s="4">
         <v>821</v>
@@ -7877,10 +7877,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="4">
+        <v>13750</v>
+      </c>
+      <c r="C359" s="4">
         <v>37091</v>
-      </c>
-      <c r="C359" s="4">
-        <v>13750</v>
       </c>
       <c r="D359" s="4">
         <v>740</v>
@@ -7894,10 +7894,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="4">
+        <v>12431</v>
+      </c>
+      <c r="C360" s="4">
         <v>35466</v>
-      </c>
-      <c r="C360" s="4">
-        <v>12431</v>
       </c>
       <c r="D360" s="4">
         <v>763</v>
@@ -7911,10 +7911,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="4">
+        <v>10280</v>
+      </c>
+      <c r="C361" s="4">
         <v>27041</v>
-      </c>
-      <c r="C361" s="4">
-        <v>10280</v>
       </c>
       <c r="D361" s="4">
         <v>770</v>
@@ -7928,10 +7928,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="4">
+        <v>2537</v>
+      </c>
+      <c r="C362" s="4">
         <v>4722</v>
-      </c>
-      <c r="C362" s="4">
-        <v>2537</v>
       </c>
       <c r="D362" s="4">
         <v>763</v>
@@ -7945,10 +7945,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="4">
+        <v>5690</v>
+      </c>
+      <c r="C363" s="4">
         <v>12662</v>
-      </c>
-      <c r="C363" s="4">
-        <v>5690</v>
       </c>
       <c r="D363" s="4">
         <v>803</v>
@@ -7962,10 +7962,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="4">
+        <v>4224</v>
+      </c>
+      <c r="C364" s="4">
         <v>8006</v>
-      </c>
-      <c r="C364" s="4">
-        <v>4224</v>
       </c>
       <c r="D364" s="4">
         <v>836</v>
@@ -7979,10 +7979,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="4">
+        <v>15388</v>
+      </c>
+      <c r="C365" s="4">
         <v>40388</v>
-      </c>
-      <c r="C365" s="4">
-        <v>15388</v>
       </c>
       <c r="D365" s="4">
         <v>854</v>
@@ -7996,10 +7996,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="4">
+        <v>15565</v>
+      </c>
+      <c r="C366" s="4">
         <v>41154</v>
-      </c>
-      <c r="C366" s="4">
-        <v>15565</v>
       </c>
       <c r="D366" s="4">
         <v>877</v>
@@ -8013,10 +8013,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="4">
+        <v>14395</v>
+      </c>
+      <c r="C367" s="4">
         <v>39573</v>
-      </c>
-      <c r="C367" s="4">
-        <v>14395</v>
       </c>
       <c r="D367" s="4">
         <v>834</v>
@@ -8030,10 +8030,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="4">
+        <v>11966</v>
+      </c>
+      <c r="C368" s="4">
         <v>31359</v>
-      </c>
-      <c r="C368" s="4">
-        <v>11966</v>
       </c>
       <c r="D368" s="4">
         <v>788</v>
@@ -8047,10 +8047,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="4">
+        <v>3216</v>
+      </c>
+      <c r="C369" s="4">
         <v>5981</v>
-      </c>
-      <c r="C369" s="4">
-        <v>3216</v>
       </c>
       <c r="D369" s="4">
         <v>883</v>
@@ -8064,10 +8064,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="4">
+        <v>6639</v>
+      </c>
+      <c r="C370" s="4">
         <v>14957</v>
-      </c>
-      <c r="C370" s="4">
-        <v>6639</v>
       </c>
       <c r="D370" s="4">
         <v>887</v>
@@ -8081,10 +8081,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="4">
+        <v>5025</v>
+      </c>
+      <c r="C371" s="4">
         <v>9566</v>
-      </c>
-      <c r="C371" s="4">
-        <v>5025</v>
       </c>
       <c r="D371" s="4">
         <v>899</v>
@@ -8098,10 +8098,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="4">
+        <v>17617</v>
+      </c>
+      <c r="C372" s="4">
         <v>42923</v>
-      </c>
-      <c r="C372" s="4">
-        <v>17617</v>
       </c>
       <c r="D372" s="4">
         <v>981</v>
@@ -8115,10 +8115,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="4">
+        <v>18536</v>
+      </c>
+      <c r="C373" s="4">
         <v>44598</v>
-      </c>
-      <c r="C373" s="4">
-        <v>18536</v>
       </c>
       <c r="D373" s="4">
         <v>941</v>
@@ -8132,10 +8132,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="4">
+        <v>18131</v>
+      </c>
+      <c r="C374" s="4">
         <v>44074</v>
-      </c>
-      <c r="C374" s="4">
-        <v>18131</v>
       </c>
       <c r="D374" s="4">
         <v>1020</v>
@@ -8149,10 +8149,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="4">
+        <v>18553</v>
+      </c>
+      <c r="C375" s="4">
         <v>46298</v>
-      </c>
-      <c r="C375" s="4">
-        <v>18553</v>
       </c>
       <c r="D375" s="4">
         <v>938</v>
@@ -8166,10 +8166,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="4">
+        <v>18193</v>
+      </c>
+      <c r="C376" s="4">
         <v>44548</v>
-      </c>
-      <c r="C376" s="4">
-        <v>18193</v>
       </c>
       <c r="D376" s="4">
         <v>1072</v>
@@ -8183,10 +8183,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="4">
+        <v>9538</v>
+      </c>
+      <c r="C377" s="4">
         <v>22728</v>
-      </c>
-      <c r="C377" s="4">
-        <v>9538</v>
       </c>
       <c r="D377" s="4">
         <v>1017</v>
@@ -8200,10 +8200,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="4">
+        <v>5339</v>
+      </c>
+      <c r="C378" s="4">
         <v>10144</v>
-      </c>
-      <c r="C378" s="4">
-        <v>5339</v>
       </c>
       <c r="D378" s="4">
         <v>1061</v>
@@ -8217,10 +8217,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="4">
+        <v>20315</v>
+      </c>
+      <c r="C379" s="4">
         <v>49001</v>
-      </c>
-      <c r="C379" s="4">
-        <v>20315</v>
       </c>
       <c r="D379" s="4">
         <v>1131</v>
@@ -8234,10 +8234,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="4">
+        <v>19186</v>
+      </c>
+      <c r="C380" s="4">
         <v>47283</v>
-      </c>
-      <c r="C380" s="4">
-        <v>19186</v>
       </c>
       <c r="D380" s="4">
         <v>1088</v>
@@ -8251,10 +8251,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="4">
+        <v>17925</v>
+      </c>
+      <c r="C381" s="4">
         <v>45291</v>
-      </c>
-      <c r="C381" s="4">
-        <v>17925</v>
       </c>
       <c r="D381" s="4">
         <v>1081</v>
@@ -8268,10 +8268,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="4">
+        <v>17950</v>
+      </c>
+      <c r="C382" s="4">
         <v>46726</v>
-      </c>
-      <c r="C382" s="4">
-        <v>17950</v>
       </c>
       <c r="D382" s="4">
         <v>1113</v>
@@ -8285,10 +8285,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="4">
+        <v>17063</v>
+      </c>
+      <c r="C383" s="4">
         <v>45108</v>
-      </c>
-      <c r="C383" s="4">
-        <v>17063</v>
       </c>
       <c r="D383" s="4">
         <v>1134</v>
@@ -8302,10 +8302,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="4">
+        <v>9187</v>
+      </c>
+      <c r="C384" s="4">
         <v>23561</v>
-      </c>
-      <c r="C384" s="4">
-        <v>9187</v>
       </c>
       <c r="D384" s="4">
         <v>1127</v>
@@ -8319,10 +8319,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="4">
+        <v>5056</v>
+      </c>
+      <c r="C385" s="4">
         <v>10049</v>
-      </c>
-      <c r="C385" s="4">
-        <v>5056</v>
       </c>
       <c r="D385" s="4">
         <v>1228</v>
@@ -8336,10 +8336,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="4">
+        <v>18903</v>
+      </c>
+      <c r="C386" s="4">
         <v>49040</v>
-      </c>
-      <c r="C386" s="4">
-        <v>18903</v>
       </c>
       <c r="D386" s="4">
         <v>1242</v>
@@ -8353,10 +8353,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="4">
+        <v>18622</v>
+      </c>
+      <c r="C387" s="4">
         <v>49461</v>
-      </c>
-      <c r="C387" s="4">
-        <v>18622</v>
       </c>
       <c r="D387" s="4">
         <v>1242</v>
@@ -8370,10 +8370,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="4">
+        <v>17234</v>
+      </c>
+      <c r="C388" s="4">
         <v>46660</v>
-      </c>
-      <c r="C388" s="4">
-        <v>17234</v>
       </c>
       <c r="D388" s="4">
         <v>1302</v>
@@ -8387,10 +8387,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="4">
+        <v>16794</v>
+      </c>
+      <c r="C389" s="4">
         <v>45556</v>
-      </c>
-      <c r="C389" s="4">
-        <v>16794</v>
       </c>
       <c r="D389" s="4">
         <v>1222</v>
@@ -8404,10 +8404,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="4">
+        <v>16348</v>
+      </c>
+      <c r="C390" s="4">
         <v>45750</v>
-      </c>
-      <c r="C390" s="4">
-        <v>16348</v>
       </c>
       <c r="D390" s="4">
         <v>1188</v>
@@ -8421,10 +8421,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="4">
+        <v>8383</v>
+      </c>
+      <c r="C391" s="4">
         <v>23409</v>
-      </c>
-      <c r="C391" s="4">
-        <v>8383</v>
       </c>
       <c r="D391" s="4">
         <v>1166</v>
@@ -8438,10 +8438,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="4">
+        <v>4542</v>
+      </c>
+      <c r="C392" s="4">
         <v>9645</v>
-      </c>
-      <c r="C392" s="4">
-        <v>4542</v>
       </c>
       <c r="D392" s="4">
         <v>1219</v>
@@ -8455,10 +8455,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="4">
+        <v>17642</v>
+      </c>
+      <c r="C393" s="4">
         <v>47489</v>
-      </c>
-      <c r="C393" s="4">
-        <v>17642</v>
       </c>
       <c r="D393" s="4">
         <v>1240</v>
@@ -8472,10 +8472,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="4">
+        <v>16912</v>
+      </c>
+      <c r="C394" s="4">
         <v>47876</v>
-      </c>
-      <c r="C394" s="4">
-        <v>16912</v>
       </c>
       <c r="D394" s="4">
         <v>1234</v>
@@ -8489,10 +8489,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="4">
+        <v>14787</v>
+      </c>
+      <c r="C395" s="4">
         <v>46980</v>
-      </c>
-      <c r="C395" s="4">
-        <v>14787</v>
       </c>
       <c r="D395" s="4">
         <v>1126</v>
@@ -8506,10 +8506,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="4">
+        <v>13939</v>
+      </c>
+      <c r="C396" s="4">
         <v>43674</v>
-      </c>
-      <c r="C396" s="4">
-        <v>13939</v>
       </c>
       <c r="D396" s="4">
         <v>1072</v>
@@ -8523,10 +8523,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="4">
+        <v>12270</v>
+      </c>
+      <c r="C397" s="4">
         <v>40081</v>
-      </c>
-      <c r="C397" s="4">
-        <v>12270</v>
       </c>
       <c r="D397" s="4">
         <v>1075</v>
@@ -8540,10 +8540,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="4">
+        <v>6530</v>
+      </c>
+      <c r="C398" s="4">
         <v>20068</v>
-      </c>
-      <c r="C398" s="4">
-        <v>6530</v>
       </c>
       <c r="D398" s="4">
         <v>1054</v>
@@ -8557,10 +8557,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="4">
+        <v>3588</v>
+      </c>
+      <c r="C399" s="4">
         <v>7554</v>
-      </c>
-      <c r="C399" s="4">
-        <v>3588</v>
       </c>
       <c r="D399" s="4">
         <v>1005</v>
@@ -8574,10 +8574,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="4">
+        <v>4359</v>
+      </c>
+      <c r="C400" s="4">
         <v>11151</v>
-      </c>
-      <c r="C400" s="4">
-        <v>4359</v>
       </c>
       <c r="D400" s="4">
         <v>1075</v>
@@ -8591,10 +8591,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="4">
+        <v>13217</v>
+      </c>
+      <c r="C401" s="4">
         <v>39816</v>
-      </c>
-      <c r="C401" s="4">
-        <v>13217</v>
       </c>
       <c r="D401" s="4">
         <v>1029</v>
@@ -8608,10 +8608,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="4">
+        <v>11706</v>
+      </c>
+      <c r="C402" s="4">
         <v>36781</v>
-      </c>
-      <c r="C402" s="4">
-        <v>11706</v>
       </c>
       <c r="D402" s="4">
         <v>944</v>
@@ -8625,10 +8625,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="4">
+        <v>10777</v>
+      </c>
+      <c r="C403" s="4">
         <v>36248</v>
-      </c>
-      <c r="C403" s="4">
-        <v>10777</v>
       </c>
       <c r="D403" s="4">
         <v>895</v>
@@ -8642,10 +8642,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="4">
+        <v>10068</v>
+      </c>
+      <c r="C404" s="4">
         <v>34861</v>
-      </c>
-      <c r="C404" s="4">
-        <v>10068</v>
       </c>
       <c r="D404" s="4">
         <v>858</v>
@@ -8659,10 +8659,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="4">
+        <v>5026</v>
+      </c>
+      <c r="C405" s="4">
         <v>16606</v>
-      </c>
-      <c r="C405" s="4">
-        <v>5026</v>
       </c>
       <c r="D405" s="4">
         <v>862</v>
@@ -8676,10 +8676,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="4">
+        <v>2588</v>
+      </c>
+      <c r="C406" s="4">
         <v>6267</v>
-      </c>
-      <c r="C406" s="4">
-        <v>2588</v>
       </c>
       <c r="D406" s="4">
         <v>783</v>
@@ -8693,10 +8693,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="4">
+        <v>11263</v>
+      </c>
+      <c r="C407" s="4">
         <v>37054</v>
-      </c>
-      <c r="C407" s="4">
-        <v>11263</v>
       </c>
       <c r="D407" s="4">
         <v>898</v>
@@ -8710,10 +8710,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="4">
+        <v>9064</v>
+      </c>
+      <c r="C408" s="4">
         <v>33209</v>
-      </c>
-      <c r="C408" s="4">
-        <v>9064</v>
       </c>
       <c r="D408" s="4">
         <v>799</v>
@@ -8727,10 +8727,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="4">
+        <v>8459</v>
+      </c>
+      <c r="C409" s="4">
         <v>31277</v>
-      </c>
-      <c r="C409" s="4">
-        <v>8459</v>
       </c>
       <c r="D409" s="4">
         <v>714</v>
@@ -8744,10 +8744,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="4">
+        <v>7757</v>
+      </c>
+      <c r="C410" s="4">
         <v>29612</v>
-      </c>
-      <c r="C410" s="4">
-        <v>7757</v>
       </c>
       <c r="D410" s="4">
         <v>731</v>
@@ -8761,10 +8761,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="4">
+        <v>7534</v>
+      </c>
+      <c r="C411" s="4">
         <v>28828</v>
-      </c>
-      <c r="C411" s="4">
-        <v>7534</v>
       </c>
       <c r="D411" s="4">
         <v>698</v>
@@ -8778,10 +8778,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="4">
+        <v>3820</v>
+      </c>
+      <c r="C412" s="4">
         <v>13094</v>
-      </c>
-      <c r="C412" s="4">
-        <v>3820</v>
       </c>
       <c r="D412" s="4">
         <v>608</v>
@@ -8795,10 +8795,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="4">
+        <v>2035</v>
+      </c>
+      <c r="C413" s="4">
         <v>5071</v>
-      </c>
-      <c r="C413" s="4">
-        <v>2035</v>
       </c>
       <c r="D413" s="4">
         <v>639</v>
@@ -8812,10 +8812,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="4">
+        <v>8023</v>
+      </c>
+      <c r="C414" s="4">
         <v>29247</v>
-      </c>
-      <c r="C414" s="4">
-        <v>8023</v>
       </c>
       <c r="D414" s="4">
         <v>660</v>
@@ -8829,10 +8829,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="4">
+        <v>7697</v>
+      </c>
+      <c r="C415" s="4">
         <v>27700</v>
-      </c>
-      <c r="C415" s="4">
-        <v>7697</v>
       </c>
       <c r="D415" s="4">
         <v>619</v>
@@ -8846,10 +8846,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="4">
+        <v>6927</v>
+      </c>
+      <c r="C416" s="4">
         <v>26473</v>
-      </c>
-      <c r="C416" s="4">
-        <v>6927</v>
       </c>
       <c r="D416" s="4">
         <v>591</v>
@@ -8863,10 +8863,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="4">
+        <v>6839</v>
+      </c>
+      <c r="C417" s="4">
         <v>26367</v>
-      </c>
-      <c r="C417" s="4">
-        <v>6839</v>
       </c>
       <c r="D417" s="4">
         <v>554</v>
@@ -8880,10 +8880,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="4">
+        <v>6464</v>
+      </c>
+      <c r="C418" s="4">
         <v>26170</v>
-      </c>
-      <c r="C418" s="4">
-        <v>6464</v>
       </c>
       <c r="D418" s="4">
         <v>574</v>
@@ -8897,10 +8897,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="4">
+        <v>3267</v>
+      </c>
+      <c r="C419" s="4">
         <v>11297</v>
-      </c>
-      <c r="C419" s="4">
-        <v>3267</v>
       </c>
       <c r="D419" s="4">
         <v>491</v>
@@ -8914,10 +8914,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="4">
+        <v>1937</v>
+      </c>
+      <c r="C420" s="4">
         <v>5636</v>
-      </c>
-      <c r="C420" s="4">
-        <v>1937</v>
       </c>
       <c r="D420" s="4">
         <v>570</v>
@@ -8931,10 +8931,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="4">
+        <v>8248</v>
+      </c>
+      <c r="C421" s="4">
         <v>30643</v>
-      </c>
-      <c r="C421" s="4">
-        <v>8248</v>
       </c>
       <c r="D421" s="4">
         <v>561</v>
@@ -8948,10 +8948,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="4">
+        <v>7206</v>
+      </c>
+      <c r="C422" s="4">
         <v>28242</v>
-      </c>
-      <c r="C422" s="4">
-        <v>7206</v>
       </c>
       <c r="D422" s="4">
         <v>472</v>
@@ -8965,10 +8965,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="4">
+        <v>6525</v>
+      </c>
+      <c r="C423" s="4">
         <v>27039</v>
-      </c>
-      <c r="C423" s="4">
-        <v>6525</v>
       </c>
       <c r="D423" s="4">
         <v>473</v>
@@ -8982,10 +8982,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="4">
+        <v>6441</v>
+      </c>
+      <c r="C424" s="4">
         <v>26095</v>
-      </c>
-      <c r="C424" s="4">
-        <v>6441</v>
       </c>
       <c r="D424" s="4">
         <v>455</v>
@@ -8999,10 +8999,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="4">
+        <v>6471</v>
+      </c>
+      <c r="C425" s="4">
         <v>26803</v>
-      </c>
-      <c r="C425" s="4">
-        <v>6471</v>
       </c>
       <c r="D425" s="4">
         <v>416</v>
@@ -9016,10 +9016,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="4">
+        <v>3213</v>
+      </c>
+      <c r="C426" s="4">
         <v>11239</v>
-      </c>
-      <c r="C426" s="4">
-        <v>3213</v>
       </c>
       <c r="D426" s="4">
         <v>435</v>
@@ -9033,10 +9033,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="4">
+        <v>1870</v>
+      </c>
+      <c r="C427" s="4">
         <v>5315</v>
-      </c>
-      <c r="C427" s="4">
-        <v>1870</v>
       </c>
       <c r="D427" s="4">
         <v>450</v>
@@ -9050,10 +9050,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="4">
+        <v>8041</v>
+      </c>
+      <c r="C428" s="4">
         <v>29307</v>
-      </c>
-      <c r="C428" s="4">
-        <v>8041</v>
       </c>
       <c r="D428" s="4">
         <v>434</v>
@@ -9067,10 +9067,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="4">
+        <v>6307</v>
+      </c>
+      <c r="C429" s="4">
         <v>26375</v>
-      </c>
-      <c r="C429" s="4">
-        <v>6307</v>
       </c>
       <c r="D429" s="4">
         <v>422</v>
@@ -9084,10 +9084,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="4">
+        <v>5983</v>
+      </c>
+      <c r="C430" s="4">
         <v>24898</v>
-      </c>
-      <c r="C430" s="4">
-        <v>5983</v>
       </c>
       <c r="D430" s="4">
         <v>371</v>
@@ -9101,10 +9101,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="4">
+        <v>5598</v>
+      </c>
+      <c r="C431" s="4">
         <v>23809</v>
-      </c>
-      <c r="C431" s="4">
-        <v>5598</v>
       </c>
       <c r="D431" s="4">
         <v>355</v>
@@ -9118,10 +9118,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="4">
+        <v>5266</v>
+      </c>
+      <c r="C432" s="4">
         <v>23919</v>
-      </c>
-      <c r="C432" s="4">
-        <v>5266</v>
       </c>
       <c r="D432" s="4">
         <v>378</v>
@@ -9135,10 +9135,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="4">
+        <v>2553</v>
+      </c>
+      <c r="C433" s="4">
         <v>10020</v>
-      </c>
-      <c r="C433" s="4">
-        <v>2553</v>
       </c>
       <c r="D433" s="4">
         <v>345</v>
@@ -9152,10 +9152,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="4">
+        <v>1557</v>
+      </c>
+      <c r="C434" s="4">
         <v>4800</v>
-      </c>
-      <c r="C434" s="4">
-        <v>1557</v>
       </c>
       <c r="D434" s="4">
         <v>333</v>
@@ -9169,10 +9169,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="4">
+        <v>5478</v>
+      </c>
+      <c r="C435" s="4">
         <v>23905</v>
-      </c>
-      <c r="C435" s="4">
-        <v>5478</v>
       </c>
       <c r="D435" s="4">
         <v>352</v>
@@ -9186,10 +9186,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="4">
+        <v>4100</v>
+      </c>
+      <c r="C436" s="4">
         <v>21624</v>
-      </c>
-      <c r="C436" s="4">
-        <v>4100</v>
       </c>
       <c r="D436" s="4">
         <v>259</v>
@@ -9203,10 +9203,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="4">
+        <v>2392</v>
+      </c>
+      <c r="C437" s="4">
         <v>19325</v>
-      </c>
-      <c r="C437" s="4">
-        <v>2392</v>
       </c>
       <c r="D437" s="4">
         <v>94</v>
@@ -9225,7 +9225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEB6AB1-886B-4A1D-B637-55E09DC4CF09}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
